--- a/BackTest/2020-01-21 BackTest FCT.xlsx
+++ b/BackTest/2020-01-21 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31.4</v>
+        <v>31.73</v>
       </c>
       <c r="C2" t="n">
-        <v>31.3</v>
+        <v>31.73</v>
       </c>
       <c r="D2" t="n">
-        <v>31.4</v>
+        <v>31.73</v>
       </c>
       <c r="E2" t="n">
-        <v>31.3</v>
+        <v>31.73</v>
       </c>
       <c r="F2" t="n">
-        <v>50881.9858</v>
+        <v>369.392</v>
       </c>
       <c r="G2" t="n">
-        <v>31.22416666666669</v>
+        <v>31.21250000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="C3" t="n">
         <v>31.3</v>
       </c>
       <c r="D3" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="E3" t="n">
         <v>31.3</v>
       </c>
       <c r="F3" t="n">
-        <v>4203.1907</v>
+        <v>50881.9858</v>
       </c>
       <c r="G3" t="n">
-        <v>31.23583333333336</v>
+        <v>31.22416666666669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>31.3</v>
       </c>
       <c r="F4" t="n">
-        <v>3269.1482</v>
+        <v>4203.1907</v>
       </c>
       <c r="G4" t="n">
-        <v>31.24583333333335</v>
+        <v>31.23583333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,31 +538,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="C5" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="D5" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="E5" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="F5" t="n">
-        <v>99</v>
+        <v>3269.1482</v>
       </c>
       <c r="G5" t="n">
-        <v>31.25583333333336</v>
+        <v>31.24583333333335</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.3</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -585,10 +589,10 @@
         <v>31.4</v>
       </c>
       <c r="F6" t="n">
-        <v>6754.9524</v>
+        <v>99</v>
       </c>
       <c r="G6" t="n">
-        <v>31.26583333333336</v>
+        <v>31.25583333333336</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -597,8 +601,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,32 +618,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6754.9524</v>
+      </c>
+      <c r="G7" t="n">
+        <v>31.26583333333336</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
         <v>31.3</v>
       </c>
-      <c r="C7" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1518.8489</v>
-      </c>
-      <c r="G7" t="n">
-        <v>31.27583333333336</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,22 +659,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>31.41</v>
+        <v>31.3</v>
       </c>
       <c r="C8" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="D8" t="n">
-        <v>31.41</v>
+        <v>31.3</v>
       </c>
       <c r="E8" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="F8" t="n">
-        <v>57222.2441</v>
+        <v>1518.8489</v>
       </c>
       <c r="G8" t="n">
-        <v>31.28916666666669</v>
+        <v>31.27583333333336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +694,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31.31</v>
+        <v>31.41</v>
       </c>
       <c r="C9" t="n">
-        <v>31.31</v>
+        <v>31.4</v>
       </c>
       <c r="D9" t="n">
-        <v>31.31</v>
+        <v>31.41</v>
       </c>
       <c r="E9" t="n">
-        <v>31.31</v>
+        <v>31.4</v>
       </c>
       <c r="F9" t="n">
-        <v>4213.2571</v>
+        <v>57222.2441</v>
       </c>
       <c r="G9" t="n">
-        <v>31.3026666666667</v>
+        <v>31.28916666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +741,10 @@
         <v>31.31</v>
       </c>
       <c r="F10" t="n">
-        <v>18298.4659</v>
+        <v>4213.2571</v>
       </c>
       <c r="G10" t="n">
-        <v>31.31283333333336</v>
+        <v>31.3026666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +767,19 @@
         <v>31.31</v>
       </c>
       <c r="C11" t="n">
-        <v>31.87</v>
+        <v>31.31</v>
       </c>
       <c r="D11" t="n">
-        <v>31.87</v>
+        <v>31.31</v>
       </c>
       <c r="E11" t="n">
         <v>31.31</v>
       </c>
       <c r="F11" t="n">
-        <v>28206.8687</v>
+        <v>18298.4659</v>
       </c>
       <c r="G11" t="n">
-        <v>31.33233333333336</v>
+        <v>31.31283333333336</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +799,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31.4</v>
+        <v>31.31</v>
       </c>
       <c r="C12" t="n">
-        <v>31.3</v>
+        <v>31.87</v>
       </c>
       <c r="D12" t="n">
-        <v>31.4</v>
+        <v>31.87</v>
       </c>
       <c r="E12" t="n">
-        <v>31.3</v>
+        <v>31.31</v>
       </c>
       <c r="F12" t="n">
-        <v>28190.8687</v>
+        <v>28206.8687</v>
       </c>
       <c r="G12" t="n">
-        <v>31.34066666666669</v>
+        <v>31.33233333333336</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="C13" t="n">
-        <v>31.6</v>
+        <v>31.3</v>
       </c>
       <c r="D13" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="E13" t="n">
-        <v>31.6</v>
+        <v>31.3</v>
       </c>
       <c r="F13" t="n">
-        <v>9497.831</v>
+        <v>28190.8687</v>
       </c>
       <c r="G13" t="n">
-        <v>31.35400000000002</v>
+        <v>31.34066666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +869,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31.51</v>
+        <v>31.6</v>
       </c>
       <c r="C14" t="n">
-        <v>31.51</v>
+        <v>31.6</v>
       </c>
       <c r="D14" t="n">
-        <v>31.51</v>
+        <v>31.6</v>
       </c>
       <c r="E14" t="n">
-        <v>31.51</v>
+        <v>31.6</v>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>9497.831</v>
       </c>
       <c r="G14" t="n">
-        <v>31.36633333333335</v>
+        <v>31.35400000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +916,10 @@
         <v>31.51</v>
       </c>
       <c r="F15" t="n">
-        <v>344.0848</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="n">
-        <v>31.37983333333336</v>
+        <v>31.36633333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +942,19 @@
         <v>31.51</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6</v>
+        <v>31.51</v>
       </c>
       <c r="D16" t="n">
-        <v>31.6</v>
+        <v>31.51</v>
       </c>
       <c r="E16" t="n">
         <v>31.51</v>
       </c>
       <c r="F16" t="n">
-        <v>15783.59719139241</v>
+        <v>344.0848</v>
       </c>
       <c r="G16" t="n">
-        <v>31.39483333333335</v>
+        <v>31.37983333333336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +974,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.3</v>
+        <v>31.51</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="E17" t="n">
-        <v>31.3</v>
+        <v>31.51</v>
       </c>
       <c r="F17" t="n">
-        <v>5512.0561</v>
+        <v>15783.59719139241</v>
       </c>
       <c r="G17" t="n">
-        <v>31.40483333333335</v>
+        <v>31.39483333333335</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1021,10 @@
         <v>31.3</v>
       </c>
       <c r="F18" t="n">
-        <v>5747.1012</v>
+        <v>5512.0561</v>
       </c>
       <c r="G18" t="n">
-        <v>31.41333333333335</v>
+        <v>31.40483333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1047,19 @@
         <v>31.3</v>
       </c>
       <c r="C19" t="n">
-        <v>31.23</v>
+        <v>31.3</v>
       </c>
       <c r="D19" t="n">
         <v>31.3</v>
       </c>
       <c r="E19" t="n">
-        <v>31.23</v>
+        <v>31.3</v>
       </c>
       <c r="F19" t="n">
-        <v>42627.3614</v>
+        <v>5747.1012</v>
       </c>
       <c r="G19" t="n">
-        <v>31.42133333333335</v>
+        <v>31.41333333333335</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1079,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>31.22</v>
+        <v>31.3</v>
       </c>
       <c r="C20" t="n">
-        <v>31.2</v>
+        <v>31.23</v>
       </c>
       <c r="D20" t="n">
-        <v>31.22</v>
+        <v>31.3</v>
       </c>
       <c r="E20" t="n">
-        <v>31.2</v>
+        <v>31.23</v>
       </c>
       <c r="F20" t="n">
-        <v>30701.6795</v>
+        <v>42627.3614</v>
       </c>
       <c r="G20" t="n">
-        <v>31.43266666666669</v>
+        <v>31.42133333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,32 +1114,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="C21" t="n">
         <v>31.2</v>
       </c>
-      <c r="C21" t="n">
-        <v>31.69</v>
-      </c>
       <c r="D21" t="n">
-        <v>31.69</v>
+        <v>31.22</v>
       </c>
       <c r="E21" t="n">
         <v>31.2</v>
       </c>
       <c r="F21" t="n">
-        <v>132459.8295</v>
+        <v>30701.6795</v>
       </c>
       <c r="G21" t="n">
-        <v>31.45250000000002</v>
+        <v>31.43266666666669</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>31.23</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1155,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>31.22</v>
+        <v>31.2</v>
       </c>
       <c r="C22" t="n">
-        <v>31.11</v>
+        <v>31.69</v>
       </c>
       <c r="D22" t="n">
-        <v>31.22</v>
+        <v>31.69</v>
       </c>
       <c r="E22" t="n">
-        <v>31.11</v>
+        <v>31.2</v>
       </c>
       <c r="F22" t="n">
-        <v>4070000</v>
+        <v>132459.8295</v>
       </c>
       <c r="G22" t="n">
-        <v>31.46600000000002</v>
+        <v>31.45250000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1180,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="C23" t="n">
         <v>31.11</v>
       </c>
-      <c r="C23" t="n">
-        <v>31.65</v>
-      </c>
       <c r="D23" t="n">
-        <v>31.66</v>
+        <v>31.22</v>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>31.11</v>
       </c>
       <c r="F23" t="n">
-        <v>4242555.7881</v>
+        <v>4070000</v>
       </c>
       <c r="G23" t="n">
-        <v>31.49150000000002</v>
+        <v>31.46600000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1219,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1233,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>31.2</v>
+        <v>31.11</v>
       </c>
       <c r="C24" t="n">
-        <v>31.35</v>
+        <v>31.65</v>
       </c>
       <c r="D24" t="n">
-        <v>31.47</v>
+        <v>31.66</v>
       </c>
       <c r="E24" t="n">
-        <v>31.05</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>4694773.1422</v>
+        <v>4242555.7881</v>
       </c>
       <c r="G24" t="n">
-        <v>31.51200000000002</v>
+        <v>31.49150000000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1258,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1272,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C25" t="n">
         <v>31.35</v>
       </c>
-      <c r="C25" t="n">
-        <v>31.15</v>
-      </c>
       <c r="D25" t="n">
-        <v>31.35</v>
+        <v>31.47</v>
       </c>
       <c r="E25" t="n">
-        <v>31.15</v>
+        <v>31.05</v>
       </c>
       <c r="F25" t="n">
-        <v>6410635.9326</v>
+        <v>4694773.1422</v>
       </c>
       <c r="G25" t="n">
-        <v>31.51950000000003</v>
+        <v>31.51200000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1297,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1311,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="C26" t="n">
         <v>31.15</v>
       </c>
-      <c r="C26" t="n">
-        <v>31.2</v>
-      </c>
       <c r="D26" t="n">
-        <v>31.25</v>
+        <v>31.35</v>
       </c>
       <c r="E26" t="n">
         <v>31.15</v>
       </c>
       <c r="F26" t="n">
-        <v>6080264.8914</v>
+        <v>6410635.9326</v>
       </c>
       <c r="G26" t="n">
-        <v>31.53700000000002</v>
+        <v>31.51950000000003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1336,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1350,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="C27" t="n">
         <v>31.2</v>
       </c>
-      <c r="C27" t="n">
-        <v>31.1</v>
-      </c>
       <c r="D27" t="n">
-        <v>31.2</v>
+        <v>31.25</v>
       </c>
       <c r="E27" t="n">
-        <v>31.1</v>
+        <v>31.15</v>
       </c>
       <c r="F27" t="n">
-        <v>2102946.0749</v>
+        <v>6080264.8914</v>
       </c>
       <c r="G27" t="n">
-        <v>31.55333333333336</v>
+        <v>31.53700000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1375,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1389,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C28" t="n">
         <v>31.1</v>
       </c>
-      <c r="C28" t="n">
-        <v>31.3</v>
-      </c>
       <c r="D28" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="E28" t="n">
         <v>31.1</v>
       </c>
       <c r="F28" t="n">
-        <v>17536.017</v>
+        <v>2102946.0749</v>
       </c>
       <c r="G28" t="n">
-        <v>31.57166666666669</v>
+        <v>31.55333333333336</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1414,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1381,19 +1431,19 @@
         <v>31.1</v>
       </c>
       <c r="C29" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="D29" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="E29" t="n">
         <v>31.1</v>
       </c>
       <c r="F29" t="n">
-        <v>15878.0321</v>
+        <v>17536.017</v>
       </c>
       <c r="G29" t="n">
-        <v>31.58666666666669</v>
+        <v>31.57166666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1453,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1425,10 +1479,10 @@
         <v>31.1</v>
       </c>
       <c r="F30" t="n">
-        <v>17133</v>
+        <v>15878.0321</v>
       </c>
       <c r="G30" t="n">
-        <v>31.59333333333335</v>
+        <v>31.58666666666669</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1492,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1506,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="C31" t="n">
-        <v>30.83</v>
+        <v>31.1</v>
       </c>
       <c r="D31" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="E31" t="n">
-        <v>30.83</v>
+        <v>31.1</v>
       </c>
       <c r="F31" t="n">
-        <v>64604.7676</v>
+        <v>17133</v>
       </c>
       <c r="G31" t="n">
-        <v>31.59566666666668</v>
+        <v>31.59333333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1531,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1486,19 +1548,19 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>31</v>
+        <v>30.83</v>
       </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>30.83</v>
       </c>
       <c r="F32" t="n">
-        <v>50873.0049</v>
+        <v>64604.7676</v>
       </c>
       <c r="G32" t="n">
-        <v>31.60083333333335</v>
+        <v>31.59566666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1570,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1584,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="E33" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F33" t="n">
-        <v>37.5714</v>
+        <v>50873.0049</v>
       </c>
       <c r="G33" t="n">
-        <v>31.61816666666668</v>
+        <v>31.60083333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1609,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1556,19 +1626,19 @@
         <v>31.2</v>
       </c>
       <c r="C34" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="D34" t="n">
         <v>31.2</v>
       </c>
       <c r="E34" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="F34" t="n">
-        <v>5000.9946</v>
+        <v>37.5714</v>
       </c>
       <c r="G34" t="n">
-        <v>31.60916666666668</v>
+        <v>31.61816666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1648,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1662,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>31.23</v>
+        <v>31.2</v>
       </c>
       <c r="C35" t="n">
-        <v>31.23</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
-        <v>31.23</v>
+        <v>31.2</v>
       </c>
       <c r="E35" t="n">
-        <v>31.23</v>
+        <v>31</v>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>5000.9946</v>
       </c>
       <c r="G35" t="n">
-        <v>31.60750000000002</v>
+        <v>31.60916666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1687,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1626,19 +1704,19 @@
         <v>31.23</v>
       </c>
       <c r="C36" t="n">
-        <v>31.3</v>
+        <v>31.23</v>
       </c>
       <c r="D36" t="n">
-        <v>31.3</v>
+        <v>31.23</v>
       </c>
       <c r="E36" t="n">
         <v>31.23</v>
       </c>
       <c r="F36" t="n">
-        <v>12203.7228</v>
+        <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>31.59333333333335</v>
+        <v>31.60750000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1726,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1740,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31.35</v>
+        <v>31.23</v>
       </c>
       <c r="C37" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="D37" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="E37" t="n">
-        <v>31.35</v>
+        <v>31.23</v>
       </c>
       <c r="F37" t="n">
-        <v>76627.7306</v>
+        <v>12203.7228</v>
       </c>
       <c r="G37" t="n">
-        <v>31.59100000000002</v>
+        <v>31.59333333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1765,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,7 +1779,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>31.7</v>
+        <v>31.35</v>
       </c>
       <c r="C38" t="n">
         <v>31.7</v>
@@ -1702,13 +1788,13 @@
         <v>31.7</v>
       </c>
       <c r="E38" t="n">
-        <v>31.7</v>
+        <v>31.35</v>
       </c>
       <c r="F38" t="n">
-        <v>20146.853</v>
+        <v>76627.7306</v>
       </c>
       <c r="G38" t="n">
-        <v>31.58433333333335</v>
+        <v>31.59100000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1804,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1740,10 +1830,10 @@
         <v>31.7</v>
       </c>
       <c r="F39" t="n">
-        <v>45475.7753</v>
+        <v>20146.853</v>
       </c>
       <c r="G39" t="n">
-        <v>31.57766666666669</v>
+        <v>31.58433333333335</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1843,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1766,19 +1860,19 @@
         <v>31.7</v>
       </c>
       <c r="C40" t="n">
-        <v>31.23</v>
+        <v>31.7</v>
       </c>
       <c r="D40" t="n">
         <v>31.7</v>
       </c>
       <c r="E40" t="n">
-        <v>31.23</v>
+        <v>31.7</v>
       </c>
       <c r="F40" t="n">
-        <v>127803.72</v>
+        <v>45475.7753</v>
       </c>
       <c r="G40" t="n">
-        <v>31.56016666666669</v>
+        <v>31.57766666666669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1882,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1896,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C41" t="n">
         <v>31.23</v>
       </c>
-      <c r="C41" t="n">
-        <v>31.4</v>
-      </c>
       <c r="D41" t="n">
-        <v>31.71</v>
+        <v>31.7</v>
       </c>
       <c r="E41" t="n">
         <v>31.23</v>
       </c>
       <c r="F41" t="n">
-        <v>1188.9034</v>
+        <v>127803.72</v>
       </c>
       <c r="G41" t="n">
-        <v>31.55683333333336</v>
+        <v>31.56016666666669</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1921,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1935,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>31.4</v>
+        <v>31.23</v>
       </c>
       <c r="C42" t="n">
         <v>31.4</v>
       </c>
       <c r="D42" t="n">
-        <v>31.4</v>
+        <v>31.71</v>
       </c>
       <c r="E42" t="n">
-        <v>31.4</v>
+        <v>31.23</v>
       </c>
       <c r="F42" t="n">
-        <v>122</v>
+        <v>1188.9034</v>
       </c>
       <c r="G42" t="n">
-        <v>31.55800000000003</v>
+        <v>31.55683333333336</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1960,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1974,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.69</v>
+        <v>31.4</v>
       </c>
       <c r="C43" t="n">
-        <v>31.79</v>
+        <v>31.4</v>
       </c>
       <c r="D43" t="n">
-        <v>31.79</v>
+        <v>31.4</v>
       </c>
       <c r="E43" t="n">
-        <v>31.69</v>
+        <v>31.4</v>
       </c>
       <c r="F43" t="n">
-        <v>34850.5818</v>
+        <v>122</v>
       </c>
       <c r="G43" t="n">
-        <v>31.55616666666669</v>
+        <v>31.55800000000003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1999,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +2013,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="C44" t="n">
         <v>31.79</v>
-      </c>
-      <c r="C44" t="n">
-        <v>31.6</v>
       </c>
       <c r="D44" t="n">
         <v>31.79</v>
       </c>
       <c r="E44" t="n">
-        <v>31.6</v>
+        <v>31.69</v>
       </c>
       <c r="F44" t="n">
-        <v>176.4182</v>
+        <v>34850.5818</v>
       </c>
       <c r="G44" t="n">
-        <v>31.55450000000002</v>
+        <v>31.55616666666669</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2038,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2052,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.23</v>
+        <v>31.79</v>
       </c>
       <c r="C45" t="n">
-        <v>31.23</v>
+        <v>31.6</v>
       </c>
       <c r="D45" t="n">
-        <v>31.23</v>
+        <v>31.79</v>
       </c>
       <c r="E45" t="n">
-        <v>31.23</v>
+        <v>31.6</v>
       </c>
       <c r="F45" t="n">
-        <v>27.2909</v>
+        <v>176.4182</v>
       </c>
       <c r="G45" t="n">
-        <v>31.54833333333336</v>
+        <v>31.55450000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2077,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2091,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.3</v>
+        <v>31.23</v>
       </c>
       <c r="C46" t="n">
-        <v>31.3</v>
+        <v>31.23</v>
       </c>
       <c r="D46" t="n">
-        <v>31.3</v>
+        <v>31.23</v>
       </c>
       <c r="E46" t="n">
-        <v>31.3</v>
+        <v>31.23</v>
       </c>
       <c r="F46" t="n">
-        <v>699</v>
+        <v>27.2909</v>
       </c>
       <c r="G46" t="n">
-        <v>31.54000000000002</v>
+        <v>31.54833333333336</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2116,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,10 +2142,10 @@
         <v>31.3</v>
       </c>
       <c r="F47" t="n">
-        <v>27.2909</v>
+        <v>699</v>
       </c>
       <c r="G47" t="n">
-        <v>31.53383333333336</v>
+        <v>31.54000000000002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2155,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2181,10 @@
         <v>31.3</v>
       </c>
       <c r="F48" t="n">
-        <v>64724.6191</v>
+        <v>27.2909</v>
       </c>
       <c r="G48" t="n">
-        <v>31.52766666666669</v>
+        <v>31.53383333333336</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2194,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2208,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="C49" t="n">
         <v>31.3</v>
       </c>
       <c r="D49" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="E49" t="n">
         <v>31.3</v>
       </c>
       <c r="F49" t="n">
-        <v>2140</v>
+        <v>64724.6191</v>
       </c>
       <c r="G49" t="n">
-        <v>31.52016666666669</v>
+        <v>31.52766666666669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2233,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2247,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="C50" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="D50" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="E50" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="F50" t="n">
-        <v>19086.9061</v>
+        <v>2140</v>
       </c>
       <c r="G50" t="n">
-        <v>31.51183333333335</v>
+        <v>31.52016666666669</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2272,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2286,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="C51" t="n">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
       <c r="D51" t="n">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
       <c r="E51" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="F51" t="n">
-        <v>56262.145</v>
+        <v>19086.9061</v>
       </c>
       <c r="G51" t="n">
-        <v>31.50850000000002</v>
+        <v>31.51183333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2311,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2325,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>31.86</v>
+        <v>31.7</v>
       </c>
       <c r="C52" t="n">
-        <v>31.89</v>
+        <v>31.8</v>
       </c>
       <c r="D52" t="n">
-        <v>31.89</v>
+        <v>31.8</v>
       </c>
       <c r="E52" t="n">
-        <v>31.86</v>
+        <v>31.7</v>
       </c>
       <c r="F52" t="n">
-        <v>34852.9043</v>
+        <v>56262.145</v>
       </c>
       <c r="G52" t="n">
-        <v>31.50350000000002</v>
+        <v>31.50850000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2350,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2364,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="C53" t="n">
         <v>31.89</v>
       </c>
-      <c r="C53" t="n">
-        <v>32.28</v>
-      </c>
       <c r="D53" t="n">
-        <v>32.28</v>
+        <v>31.89</v>
       </c>
       <c r="E53" t="n">
-        <v>31.89</v>
+        <v>31.86</v>
       </c>
       <c r="F53" t="n">
-        <v>178219.5259</v>
+        <v>34852.9043</v>
       </c>
       <c r="G53" t="n">
-        <v>31.49650000000002</v>
+        <v>31.50350000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2389,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2403,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="C54" t="n">
         <v>32.28</v>
       </c>
-      <c r="C54" t="n">
-        <v>32.4</v>
-      </c>
       <c r="D54" t="n">
-        <v>32.4</v>
+        <v>32.28</v>
       </c>
       <c r="E54" t="n">
-        <v>32.28</v>
+        <v>31.89</v>
       </c>
       <c r="F54" t="n">
-        <v>22165.8372</v>
+        <v>178219.5259</v>
       </c>
       <c r="G54" t="n">
-        <v>31.49150000000002</v>
+        <v>31.49650000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2428,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2442,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31.91</v>
+        <v>32.28</v>
       </c>
       <c r="C55" t="n">
-        <v>32.34</v>
+        <v>32.4</v>
       </c>
       <c r="D55" t="n">
-        <v>32.34</v>
+        <v>32.4</v>
       </c>
       <c r="E55" t="n">
-        <v>31.91</v>
+        <v>32.28</v>
       </c>
       <c r="F55" t="n">
-        <v>104500.3344</v>
+        <v>22165.8372</v>
       </c>
       <c r="G55" t="n">
-        <v>31.48583333333335</v>
+        <v>31.49150000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2467,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,32 +2481,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.94</v>
+        <v>31.91</v>
       </c>
       <c r="C56" t="n">
-        <v>32.37</v>
+        <v>32.34</v>
       </c>
       <c r="D56" t="n">
-        <v>32.37</v>
+        <v>32.34</v>
       </c>
       <c r="E56" t="n">
-        <v>31.94</v>
+        <v>31.91</v>
       </c>
       <c r="F56" t="n">
-        <v>51908.50651652765</v>
+        <v>104500.3344</v>
       </c>
       <c r="G56" t="n">
-        <v>31.48383333333335</v>
+        <v>31.48583333333335</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,32 +2520,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>32.36</v>
+        <v>31.94</v>
       </c>
       <c r="C57" t="n">
-        <v>32.36</v>
+        <v>32.37</v>
       </c>
       <c r="D57" t="n">
         <v>32.37</v>
       </c>
       <c r="E57" t="n">
-        <v>32.36</v>
+        <v>31.94</v>
       </c>
       <c r="F57" t="n">
-        <v>34246.41496011739</v>
+        <v>51908.50651652765</v>
       </c>
       <c r="G57" t="n">
-        <v>31.48166666666668</v>
+        <v>31.48383333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,32 +2559,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>32.34</v>
+        <v>32.36</v>
       </c>
       <c r="C58" t="n">
-        <v>32.34</v>
+        <v>32.36</v>
       </c>
       <c r="D58" t="n">
-        <v>32.34</v>
+        <v>32.37</v>
       </c>
       <c r="E58" t="n">
-        <v>32.34</v>
+        <v>32.36</v>
       </c>
       <c r="F58" t="n">
-        <v>18440.0297</v>
+        <v>34246.41496011739</v>
       </c>
       <c r="G58" t="n">
-        <v>31.48066666666668</v>
+        <v>31.48166666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2598,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>32.13</v>
+        <v>32.34</v>
       </c>
       <c r="C59" t="n">
-        <v>31.95</v>
+        <v>32.34</v>
       </c>
       <c r="D59" t="n">
-        <v>32.13</v>
+        <v>32.34</v>
       </c>
       <c r="E59" t="n">
-        <v>31.95</v>
+        <v>32.34</v>
       </c>
       <c r="F59" t="n">
-        <v>33</v>
+        <v>18440.0297</v>
       </c>
       <c r="G59" t="n">
-        <v>31.48983333333334</v>
+        <v>31.48066666666668</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,38 +2623,40 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="C60" t="n">
         <v>31.95</v>
       </c>
-      <c r="C60" t="n">
-        <v>32.36</v>
-      </c>
       <c r="D60" t="n">
-        <v>32.36</v>
+        <v>32.13</v>
       </c>
       <c r="E60" t="n">
         <v>31.95</v>
       </c>
       <c r="F60" t="n">
-        <v>116920.069</v>
+        <v>33</v>
       </c>
       <c r="G60" t="n">
-        <v>31.50033333333334</v>
+        <v>31.48983333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2498,22 +2670,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="C61" t="n">
         <v>32.36</v>
       </c>
-      <c r="C61" t="n">
-        <v>32.46</v>
-      </c>
       <c r="D61" t="n">
-        <v>32.46</v>
+        <v>32.36</v>
       </c>
       <c r="E61" t="n">
-        <v>32.36</v>
+        <v>31.95</v>
       </c>
       <c r="F61" t="n">
-        <v>276778.2941</v>
+        <v>116920.069</v>
       </c>
       <c r="G61" t="n">
-        <v>31.51250000000001</v>
+        <v>31.50033333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2708,19 @@
         <v>32.36</v>
       </c>
       <c r="C62" t="n">
-        <v>32.36</v>
+        <v>32.46</v>
       </c>
       <c r="D62" t="n">
-        <v>32.36</v>
+        <v>32.46</v>
       </c>
       <c r="E62" t="n">
         <v>32.36</v>
       </c>
       <c r="F62" t="n">
-        <v>49017.9937</v>
+        <v>276778.2941</v>
       </c>
       <c r="G62" t="n">
-        <v>31.53016666666667</v>
+        <v>31.51250000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2752,10 @@
         <v>32.36</v>
       </c>
       <c r="F63" t="n">
-        <v>2967.4332</v>
+        <v>49017.9937</v>
       </c>
       <c r="G63" t="n">
-        <v>31.54783333333334</v>
+        <v>31.53016666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2787,10 @@
         <v>32.36</v>
       </c>
       <c r="F64" t="n">
-        <v>1335.3449</v>
+        <v>2967.4332</v>
       </c>
       <c r="G64" t="n">
-        <v>31.5655</v>
+        <v>31.54783333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2822,10 @@
         <v>32.36</v>
       </c>
       <c r="F65" t="n">
-        <v>68.37990000000001</v>
+        <v>1335.3449</v>
       </c>
       <c r="G65" t="n">
-        <v>31.5815</v>
+        <v>31.5655</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2845,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>32</v>
+        <v>32.36</v>
       </c>
       <c r="C66" t="n">
-        <v>32</v>
+        <v>32.36</v>
       </c>
       <c r="D66" t="n">
-        <v>32</v>
+        <v>32.36</v>
       </c>
       <c r="E66" t="n">
-        <v>32</v>
+        <v>32.36</v>
       </c>
       <c r="F66" t="n">
-        <v>400</v>
+        <v>68.37990000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>31.5915</v>
+        <v>31.5815</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2880,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>31.96</v>
+        <v>32</v>
       </c>
       <c r="C67" t="n">
-        <v>31.96</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
-        <v>31.96</v>
+        <v>32</v>
       </c>
       <c r="E67" t="n">
-        <v>31.96</v>
+        <v>32</v>
       </c>
       <c r="F67" t="n">
-        <v>2538.1631</v>
+        <v>400</v>
       </c>
       <c r="G67" t="n">
-        <v>31.6025</v>
+        <v>31.5915</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2915,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>31.93</v>
+        <v>31.96</v>
       </c>
       <c r="C68" t="n">
-        <v>32.4</v>
+        <v>31.96</v>
       </c>
       <c r="D68" t="n">
-        <v>32.4</v>
+        <v>31.96</v>
       </c>
       <c r="E68" t="n">
-        <v>31.93</v>
+        <v>31.96</v>
       </c>
       <c r="F68" t="n">
-        <v>9561.481574074074</v>
+        <v>2538.1631</v>
       </c>
       <c r="G68" t="n">
-        <v>31.61916666666667</v>
+        <v>31.6025</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2950,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>31.9</v>
+        <v>31.93</v>
       </c>
       <c r="C69" t="n">
-        <v>31.9</v>
+        <v>32.4</v>
       </c>
       <c r="D69" t="n">
-        <v>31.9</v>
+        <v>32.4</v>
       </c>
       <c r="E69" t="n">
-        <v>31.9</v>
+        <v>31.93</v>
       </c>
       <c r="F69" t="n">
-        <v>13510.6825</v>
+        <v>9561.481574074074</v>
       </c>
       <c r="G69" t="n">
-        <v>31.629</v>
+        <v>31.61916666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2985,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="C70" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="D70" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="E70" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="F70" t="n">
-        <v>13511.4786</v>
+        <v>13510.6825</v>
       </c>
       <c r="G70" t="n">
-        <v>31.64383333333334</v>
+        <v>31.629</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +3020,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="C71" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="D71" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="E71" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="F71" t="n">
-        <v>7040.4295</v>
+        <v>13511.4786</v>
       </c>
       <c r="G71" t="n">
-        <v>31.64600000000001</v>
+        <v>31.64383333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +3055,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>31.98</v>
+        <v>32.3</v>
       </c>
       <c r="C72" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="D72" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="E72" t="n">
-        <v>31.98</v>
+        <v>32</v>
       </c>
       <c r="F72" t="n">
-        <v>484.1427</v>
+        <v>7040.4295</v>
       </c>
       <c r="G72" t="n">
-        <v>31.66100000000001</v>
+        <v>31.64600000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +3090,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>32.2</v>
+        <v>31.98</v>
       </c>
       <c r="C73" t="n">
         <v>32.2</v>
@@ -2927,13 +3099,13 @@
         <v>32.2</v>
       </c>
       <c r="E73" t="n">
-        <v>32.2</v>
+        <v>31.98</v>
       </c>
       <c r="F73" t="n">
-        <v>14181.8274</v>
+        <v>484.1427</v>
       </c>
       <c r="G73" t="n">
-        <v>31.67100000000001</v>
+        <v>31.66100000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3125,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="C74" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="D74" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="E74" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="F74" t="n">
-        <v>107.6293</v>
+        <v>14181.8274</v>
       </c>
       <c r="G74" t="n">
-        <v>31.68416666666668</v>
+        <v>31.67100000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3160,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="C75" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="D75" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="E75" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="F75" t="n">
-        <v>33667.8168</v>
+        <v>107.6293</v>
       </c>
       <c r="G75" t="n">
-        <v>31.69566666666668</v>
+        <v>31.68416666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3195,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>31.9</v>
+        <v>32.2</v>
       </c>
       <c r="C76" t="n">
-        <v>31.9</v>
+        <v>32.2</v>
       </c>
       <c r="D76" t="n">
-        <v>31.9</v>
+        <v>32.2</v>
       </c>
       <c r="E76" t="n">
-        <v>31.9</v>
+        <v>32.2</v>
       </c>
       <c r="F76" t="n">
-        <v>13143.672</v>
+        <v>33667.8168</v>
       </c>
       <c r="G76" t="n">
-        <v>31.70066666666668</v>
+        <v>31.69566666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3230,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C77" t="n">
         <v>31.9</v>
       </c>
       <c r="D77" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E77" t="n">
         <v>31.9</v>
       </c>
       <c r="F77" t="n">
-        <v>13554.2574</v>
+        <v>13143.672</v>
       </c>
       <c r="G77" t="n">
-        <v>31.71066666666668</v>
+        <v>31.70066666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3265,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>31.81</v>
+        <v>32</v>
       </c>
       <c r="C78" t="n">
-        <v>31.81</v>
+        <v>31.9</v>
       </c>
       <c r="D78" t="n">
-        <v>31.81</v>
+        <v>32</v>
       </c>
       <c r="E78" t="n">
-        <v>31.81</v>
+        <v>31.9</v>
       </c>
       <c r="F78" t="n">
-        <v>19650.9374</v>
+        <v>13554.2574</v>
       </c>
       <c r="G78" t="n">
-        <v>31.71916666666668</v>
+        <v>31.71066666666668</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3300,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>31.8</v>
+        <v>31.81</v>
       </c>
       <c r="C79" t="n">
-        <v>31.8</v>
+        <v>31.81</v>
       </c>
       <c r="D79" t="n">
-        <v>31.8</v>
+        <v>31.81</v>
       </c>
       <c r="E79" t="n">
-        <v>31.8</v>
+        <v>31.81</v>
       </c>
       <c r="F79" t="n">
-        <v>23205.0204</v>
+        <v>19650.9374</v>
       </c>
       <c r="G79" t="n">
-        <v>31.72866666666668</v>
+        <v>31.71916666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3335,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C80" t="n">
-        <v>31.62</v>
+        <v>31.8</v>
       </c>
       <c r="D80" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E80" t="n">
-        <v>31.62</v>
+        <v>31.8</v>
       </c>
       <c r="F80" t="n">
-        <v>1515</v>
+        <v>23205.0204</v>
       </c>
       <c r="G80" t="n">
-        <v>31.73566666666668</v>
+        <v>31.72866666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3370,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>32.11</v>
+        <v>31.7</v>
       </c>
       <c r="C81" t="n">
-        <v>32.18</v>
+        <v>31.62</v>
       </c>
       <c r="D81" t="n">
-        <v>32.18</v>
+        <v>31.7</v>
       </c>
       <c r="E81" t="n">
-        <v>32.11</v>
+        <v>31.62</v>
       </c>
       <c r="F81" t="n">
-        <v>203.0219</v>
+        <v>1515</v>
       </c>
       <c r="G81" t="n">
-        <v>31.74383333333335</v>
+        <v>31.73566666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3405,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>31.7</v>
+        <v>32.11</v>
       </c>
       <c r="C82" t="n">
-        <v>31.7</v>
+        <v>32.18</v>
       </c>
       <c r="D82" t="n">
-        <v>31.7</v>
+        <v>32.18</v>
       </c>
       <c r="E82" t="n">
-        <v>31.7</v>
+        <v>32.11</v>
       </c>
       <c r="F82" t="n">
-        <v>676.8872</v>
+        <v>203.0219</v>
       </c>
       <c r="G82" t="n">
-        <v>31.75366666666668</v>
+        <v>31.74383333333335</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3440,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>31.99</v>
+        <v>31.7</v>
       </c>
       <c r="C83" t="n">
-        <v>31.99</v>
+        <v>31.7</v>
       </c>
       <c r="D83" t="n">
-        <v>31.99</v>
+        <v>31.7</v>
       </c>
       <c r="E83" t="n">
-        <v>31.99</v>
+        <v>31.7</v>
       </c>
       <c r="F83" t="n">
-        <v>667.6677</v>
+        <v>676.8872</v>
       </c>
       <c r="G83" t="n">
-        <v>31.75933333333335</v>
+        <v>31.75366666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3475,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>32</v>
+        <v>31.99</v>
       </c>
       <c r="C84" t="n">
-        <v>32</v>
+        <v>31.99</v>
       </c>
       <c r="D84" t="n">
-        <v>32</v>
+        <v>31.99</v>
       </c>
       <c r="E84" t="n">
-        <v>32</v>
+        <v>31.99</v>
       </c>
       <c r="F84" t="n">
-        <v>8509.4251</v>
+        <v>667.6677</v>
       </c>
       <c r="G84" t="n">
-        <v>31.77016666666668</v>
+        <v>31.75933333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3522,10 @@
         <v>32</v>
       </c>
       <c r="F85" t="n">
-        <v>18188.5043</v>
+        <v>8509.4251</v>
       </c>
       <c r="G85" t="n">
-        <v>31.78433333333335</v>
+        <v>31.77016666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3557,10 @@
         <v>32</v>
       </c>
       <c r="F86" t="n">
-        <v>5271.788</v>
+        <v>18188.5043</v>
       </c>
       <c r="G86" t="n">
-        <v>31.79766666666668</v>
+        <v>31.78433333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3592,10 @@
         <v>32</v>
       </c>
       <c r="F87" t="n">
-        <v>411.5533</v>
+        <v>5271.788</v>
       </c>
       <c r="G87" t="n">
-        <v>31.81266666666668</v>
+        <v>31.79766666666668</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3615,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>32.12</v>
+        <v>32</v>
       </c>
       <c r="C88" t="n">
-        <v>32.12</v>
+        <v>32</v>
       </c>
       <c r="D88" t="n">
-        <v>32.12</v>
+        <v>32</v>
       </c>
       <c r="E88" t="n">
-        <v>32.12</v>
+        <v>32</v>
       </c>
       <c r="F88" t="n">
-        <v>19799.9069</v>
+        <v>411.5533</v>
       </c>
       <c r="G88" t="n">
-        <v>31.82633333333335</v>
+        <v>31.81266666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3662,10 @@
         <v>32.12</v>
       </c>
       <c r="F89" t="n">
-        <v>22221.4152</v>
+        <v>19799.9069</v>
       </c>
       <c r="G89" t="n">
-        <v>31.84333333333335</v>
+        <v>31.82633333333335</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3685,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>31.9</v>
+        <v>32.12</v>
       </c>
       <c r="C90" t="n">
-        <v>31.7</v>
+        <v>32.12</v>
       </c>
       <c r="D90" t="n">
-        <v>31.9</v>
+        <v>32.12</v>
       </c>
       <c r="E90" t="n">
-        <v>31.7</v>
+        <v>32.12</v>
       </c>
       <c r="F90" t="n">
-        <v>23046.6304</v>
+        <v>22221.4152</v>
       </c>
       <c r="G90" t="n">
-        <v>31.85333333333335</v>
+        <v>31.84333333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3720,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C91" t="n">
-        <v>32.1</v>
+        <v>31.7</v>
       </c>
       <c r="D91" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="E91" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="F91" t="n">
-        <v>7752.2789</v>
+        <v>23046.6304</v>
       </c>
       <c r="G91" t="n">
-        <v>31.87450000000002</v>
+        <v>31.85333333333335</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,7 +3755,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="C92" t="n">
         <v>32.1</v>
@@ -3592,13 +3764,13 @@
         <v>32.1</v>
       </c>
       <c r="E92" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="F92" t="n">
-        <v>4722.866043613707</v>
+        <v>7752.2789</v>
       </c>
       <c r="G92" t="n">
-        <v>31.89283333333335</v>
+        <v>31.87450000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3790,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="C93" t="n">
-        <v>32.09</v>
+        <v>32.1</v>
       </c>
       <c r="D93" t="n">
-        <v>32.09</v>
+        <v>32.1</v>
       </c>
       <c r="E93" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="F93" t="n">
-        <v>1387.0831</v>
+        <v>4722.866043613707</v>
       </c>
       <c r="G93" t="n">
-        <v>31.90766666666668</v>
+        <v>31.89283333333335</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3828,19 @@
         <v>31.9</v>
       </c>
       <c r="C94" t="n">
-        <v>31.9</v>
+        <v>32.09</v>
       </c>
       <c r="D94" t="n">
-        <v>31.9</v>
+        <v>32.09</v>
       </c>
       <c r="E94" t="n">
         <v>31.9</v>
       </c>
       <c r="F94" t="n">
-        <v>1492.8313</v>
+        <v>1387.0831</v>
       </c>
       <c r="G94" t="n">
-        <v>31.92266666666668</v>
+        <v>31.90766666666668</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3860,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="C95" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="D95" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="E95" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="F95" t="n">
-        <v>11751.5461</v>
+        <v>1492.8313</v>
       </c>
       <c r="G95" t="n">
-        <v>31.93050000000001</v>
+        <v>31.92266666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3907,10 @@
         <v>31.7</v>
       </c>
       <c r="F96" t="n">
-        <v>31467.0582</v>
+        <v>11751.5461</v>
       </c>
       <c r="G96" t="n">
-        <v>31.93716666666668</v>
+        <v>31.93050000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3767,10 +3939,10 @@
         <v>31.7</v>
       </c>
       <c r="E97" t="n">
-        <v>31.55</v>
+        <v>31.7</v>
       </c>
       <c r="F97" t="n">
-        <v>175953.5611</v>
+        <v>31467.0582</v>
       </c>
       <c r="G97" t="n">
         <v>31.93716666666668</v>
@@ -3793,22 +3965,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>31.56</v>
+        <v>31.7</v>
       </c>
       <c r="C98" t="n">
-        <v>31.56</v>
+        <v>31.7</v>
       </c>
       <c r="D98" t="n">
-        <v>31.56</v>
+        <v>31.7</v>
       </c>
       <c r="E98" t="n">
-        <v>31.56</v>
+        <v>31.55</v>
       </c>
       <c r="F98" t="n">
-        <v>18440.0297</v>
+        <v>175953.5611</v>
       </c>
       <c r="G98" t="n">
-        <v>31.93483333333335</v>
+        <v>31.93716666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +4003,19 @@
         <v>31.56</v>
       </c>
       <c r="C99" t="n">
-        <v>31.52</v>
+        <v>31.56</v>
       </c>
       <c r="D99" t="n">
         <v>31.56</v>
       </c>
       <c r="E99" t="n">
-        <v>31.52</v>
+        <v>31.56</v>
       </c>
       <c r="F99" t="n">
-        <v>55201.4938</v>
+        <v>18440.0297</v>
       </c>
       <c r="G99" t="n">
-        <v>31.93183333333335</v>
+        <v>31.93483333333335</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +4035,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>31.52</v>
+        <v>31.56</v>
       </c>
       <c r="C100" t="n">
         <v>31.52</v>
       </c>
       <c r="D100" t="n">
-        <v>31.52</v>
+        <v>31.56</v>
       </c>
       <c r="E100" t="n">
         <v>31.52</v>
       </c>
       <c r="F100" t="n">
-        <v>1287.1367</v>
+        <v>55201.4938</v>
       </c>
       <c r="G100" t="n">
-        <v>31.93666666666668</v>
+        <v>31.93183333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +4070,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>31.53</v>
+        <v>31.52</v>
       </c>
       <c r="C101" t="n">
-        <v>31.53</v>
+        <v>31.52</v>
       </c>
       <c r="D101" t="n">
-        <v>31.53</v>
+        <v>31.52</v>
       </c>
       <c r="E101" t="n">
-        <v>31.53</v>
+        <v>31.52</v>
       </c>
       <c r="F101" t="n">
-        <v>67.5711</v>
+        <v>1287.1367</v>
       </c>
       <c r="G101" t="n">
-        <v>31.93883333333334</v>
+        <v>31.93666666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,19 +4108,19 @@
         <v>31.53</v>
       </c>
       <c r="C102" t="n">
-        <v>31.52</v>
+        <v>31.53</v>
       </c>
       <c r="D102" t="n">
         <v>31.53</v>
       </c>
       <c r="E102" t="n">
-        <v>31.52</v>
+        <v>31.53</v>
       </c>
       <c r="F102" t="n">
-        <v>23046.6304</v>
+        <v>67.5711</v>
       </c>
       <c r="G102" t="n">
-        <v>31.94083333333334</v>
+        <v>31.93883333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4140,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>31.9</v>
+        <v>31.53</v>
       </c>
       <c r="C103" t="n">
-        <v>32.12</v>
+        <v>31.52</v>
       </c>
       <c r="D103" t="n">
-        <v>32.12</v>
+        <v>31.53</v>
       </c>
       <c r="E103" t="n">
-        <v>31.9</v>
+        <v>31.52</v>
       </c>
       <c r="F103" t="n">
-        <v>41772.85964427148</v>
+        <v>23046.6304</v>
       </c>
       <c r="G103" t="n">
-        <v>31.94633333333334</v>
+        <v>31.94083333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4175,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>32.09</v>
+        <v>31.9</v>
       </c>
       <c r="C104" t="n">
-        <v>32.09</v>
+        <v>32.12</v>
       </c>
       <c r="D104" t="n">
-        <v>32.09</v>
+        <v>32.12</v>
       </c>
       <c r="E104" t="n">
-        <v>32.09</v>
+        <v>31.9</v>
       </c>
       <c r="F104" t="n">
-        <v>950</v>
+        <v>41772.85964427148</v>
       </c>
       <c r="G104" t="n">
-        <v>31.95450000000001</v>
+        <v>31.94633333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4222,10 @@
         <v>32.09</v>
       </c>
       <c r="F105" t="n">
-        <v>5318.3829</v>
+        <v>950</v>
       </c>
       <c r="G105" t="n">
-        <v>31.96883333333334</v>
+        <v>31.95450000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4257,10 @@
         <v>32.09</v>
       </c>
       <c r="F106" t="n">
-        <v>31084.6442</v>
+        <v>5318.3829</v>
       </c>
       <c r="G106" t="n">
-        <v>31.98200000000001</v>
+        <v>31.96883333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4292,10 @@
         <v>32.09</v>
       </c>
       <c r="F107" t="n">
-        <v>5533.2934</v>
+        <v>31084.6442</v>
       </c>
       <c r="G107" t="n">
-        <v>31.99516666666667</v>
+        <v>31.98200000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,7 +4315,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>32.07</v>
+        <v>32.09</v>
       </c>
       <c r="C108" t="n">
         <v>32.09</v>
@@ -4152,13 +4324,13 @@
         <v>32.09</v>
       </c>
       <c r="E108" t="n">
-        <v>32.07</v>
+        <v>32.09</v>
       </c>
       <c r="F108" t="n">
-        <v>752.1716</v>
+        <v>5533.2934</v>
       </c>
       <c r="G108" t="n">
-        <v>32.00833333333334</v>
+        <v>31.99516666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4350,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="C109" t="n">
         <v>32.09</v>
       </c>
-      <c r="C109" t="n">
-        <v>32.1</v>
-      </c>
       <c r="D109" t="n">
-        <v>32.1</v>
+        <v>32.09</v>
       </c>
       <c r="E109" t="n">
-        <v>32.09</v>
+        <v>32.07</v>
       </c>
       <c r="F109" t="n">
-        <v>3849.2225</v>
+        <v>752.1716</v>
       </c>
       <c r="G109" t="n">
-        <v>32.02166666666667</v>
+        <v>32.00833333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4385,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>32.12</v>
+        <v>32.09</v>
       </c>
       <c r="C110" t="n">
-        <v>32.12</v>
+        <v>32.1</v>
       </c>
       <c r="D110" t="n">
-        <v>32.12</v>
+        <v>32.1</v>
       </c>
       <c r="E110" t="n">
-        <v>32.12</v>
+        <v>32.09</v>
       </c>
       <c r="F110" t="n">
-        <v>6891.600955728518</v>
+        <v>3849.2225</v>
       </c>
       <c r="G110" t="n">
-        <v>32.032</v>
+        <v>32.02166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4423,19 @@
         <v>32.12</v>
       </c>
       <c r="C111" t="n">
-        <v>32.18</v>
+        <v>32.12</v>
       </c>
       <c r="D111" t="n">
-        <v>32.18</v>
+        <v>32.12</v>
       </c>
       <c r="E111" t="n">
         <v>32.12</v>
       </c>
       <c r="F111" t="n">
-        <v>3838.4837</v>
+        <v>6891.600955728518</v>
       </c>
       <c r="G111" t="n">
-        <v>32.03833333333333</v>
+        <v>32.032</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,7 +4455,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>32.18</v>
+        <v>32.12</v>
       </c>
       <c r="C112" t="n">
         <v>32.18</v>
@@ -4292,13 +4464,13 @@
         <v>32.18</v>
       </c>
       <c r="E112" t="n">
-        <v>32.18</v>
+        <v>32.12</v>
       </c>
       <c r="F112" t="n">
-        <v>2767.4146</v>
+        <v>3838.4837</v>
       </c>
       <c r="G112" t="n">
-        <v>32.04316666666667</v>
+        <v>32.03833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4490,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>32.17</v>
+        <v>32.18</v>
       </c>
       <c r="C113" t="n">
-        <v>32.17</v>
+        <v>32.18</v>
       </c>
       <c r="D113" t="n">
-        <v>32.17</v>
+        <v>32.18</v>
       </c>
       <c r="E113" t="n">
-        <v>32.17</v>
+        <v>32.18</v>
       </c>
       <c r="F113" t="n">
-        <v>11646.62729250855</v>
+        <v>2767.4146</v>
       </c>
       <c r="G113" t="n">
-        <v>32.04133333333333</v>
+        <v>32.04316666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4537,10 @@
         <v>32.17</v>
       </c>
       <c r="F114" t="n">
-        <v>1441.8448</v>
+        <v>11646.62729250855</v>
       </c>
       <c r="G114" t="n">
-        <v>32.0375</v>
+        <v>32.04133333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4560,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>31.9</v>
+        <v>32.17</v>
       </c>
       <c r="C115" t="n">
-        <v>31.9</v>
+        <v>32.17</v>
       </c>
       <c r="D115" t="n">
-        <v>31.9</v>
+        <v>32.17</v>
       </c>
       <c r="E115" t="n">
-        <v>31.9</v>
+        <v>32.17</v>
       </c>
       <c r="F115" t="n">
-        <v>300</v>
+        <v>1441.8448</v>
       </c>
       <c r="G115" t="n">
-        <v>32.03016666666667</v>
+        <v>32.0375</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4607,10 @@
         <v>31.9</v>
       </c>
       <c r="F116" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="G116" t="n">
-        <v>32.02233333333334</v>
+        <v>32.03016666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4642,10 @@
         <v>31.9</v>
       </c>
       <c r="F117" t="n">
-        <v>41.476</v>
+        <v>1800</v>
       </c>
       <c r="G117" t="n">
-        <v>32.01466666666668</v>
+        <v>32.02233333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4665,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="C118" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="D118" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="E118" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="F118" t="n">
-        <v>2082.9329</v>
+        <v>41.476</v>
       </c>
       <c r="G118" t="n">
-        <v>32.00400000000001</v>
+        <v>32.01466666666668</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4700,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C119" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D119" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E119" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F119" t="n">
-        <v>2200</v>
+        <v>2082.9329</v>
       </c>
       <c r="G119" t="n">
-        <v>32.00316666666668</v>
+        <v>32.00400000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4735,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C120" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="D120" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="E120" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="F120" t="n">
-        <v>78.404</v>
+        <v>2200</v>
       </c>
       <c r="G120" t="n">
-        <v>31.99383333333335</v>
+        <v>32.00316666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4770,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>32.05</v>
+        <v>31.8</v>
       </c>
       <c r="C121" t="n">
-        <v>32.05</v>
+        <v>31.8</v>
       </c>
       <c r="D121" t="n">
-        <v>32.05</v>
+        <v>31.8</v>
       </c>
       <c r="E121" t="n">
-        <v>32.05</v>
+        <v>31.8</v>
       </c>
       <c r="F121" t="n">
-        <v>30.6291</v>
+        <v>78.404</v>
       </c>
       <c r="G121" t="n">
-        <v>31.98700000000002</v>
+        <v>31.99383333333335</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4805,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>31.8</v>
+        <v>32.05</v>
       </c>
       <c r="C122" t="n">
-        <v>31.8</v>
+        <v>32.05</v>
       </c>
       <c r="D122" t="n">
-        <v>31.8</v>
+        <v>32.05</v>
       </c>
       <c r="E122" t="n">
-        <v>31.8</v>
+        <v>32.05</v>
       </c>
       <c r="F122" t="n">
-        <v>263.9703</v>
+        <v>30.6291</v>
       </c>
       <c r="G122" t="n">
-        <v>31.97766666666668</v>
+        <v>31.98700000000002</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4843,19 @@
         <v>31.8</v>
       </c>
       <c r="C123" t="n">
-        <v>32.05</v>
+        <v>31.8</v>
       </c>
       <c r="D123" t="n">
-        <v>32.05</v>
+        <v>31.8</v>
       </c>
       <c r="E123" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F123" t="n">
-        <v>20016</v>
+        <v>263.9703</v>
       </c>
       <c r="G123" t="n">
-        <v>31.97250000000002</v>
+        <v>31.97766666666668</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4875,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C124" t="n">
-        <v>31.7</v>
+        <v>32.05</v>
       </c>
       <c r="D124" t="n">
-        <v>31.7</v>
+        <v>32.05</v>
       </c>
       <c r="E124" t="n">
         <v>31.7</v>
       </c>
       <c r="F124" t="n">
-        <v>5601.6955</v>
+        <v>20016</v>
       </c>
       <c r="G124" t="n">
-        <v>31.96150000000002</v>
+        <v>31.97250000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4910,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C125" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D125" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E125" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F125" t="n">
-        <v>46.2295</v>
+        <v>5601.6955</v>
       </c>
       <c r="G125" t="n">
-        <v>31.95383333333336</v>
+        <v>31.96150000000002</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4945,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="C126" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="D126" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="E126" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="F126" t="n">
-        <v>887.7126</v>
+        <v>46.2295</v>
       </c>
       <c r="G126" t="n">
-        <v>31.94716666666669</v>
+        <v>31.95383333333336</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4980,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="C127" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="D127" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="E127" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="F127" t="n">
-        <v>11434.1375</v>
+        <v>887.7126</v>
       </c>
       <c r="G127" t="n">
-        <v>31.94616666666669</v>
+        <v>31.94716666666669</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,7 +5015,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="C128" t="n">
         <v>31.9</v>
@@ -4852,13 +5024,13 @@
         <v>31.9</v>
       </c>
       <c r="E128" t="n">
-        <v>31.53</v>
+        <v>31.9</v>
       </c>
       <c r="F128" t="n">
-        <v>37000</v>
+        <v>11434.1375</v>
       </c>
       <c r="G128" t="n">
-        <v>31.93783333333336</v>
+        <v>31.94616666666669</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +5050,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="C129" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="D129" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="E129" t="n">
-        <v>31.6</v>
+        <v>31.53</v>
       </c>
       <c r="F129" t="n">
-        <v>16</v>
+        <v>37000</v>
       </c>
       <c r="G129" t="n">
-        <v>31.93283333333335</v>
+        <v>31.93783333333336</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +5085,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="C130" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="D130" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="E130" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="F130" t="n">
-        <v>20.9604</v>
+        <v>16</v>
       </c>
       <c r="G130" t="n">
-        <v>31.92616666666668</v>
+        <v>31.93283333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +5132,10 @@
         <v>31.8</v>
       </c>
       <c r="F131" t="n">
-        <v>1411.7723</v>
+        <v>20.9604</v>
       </c>
       <c r="G131" t="n">
-        <v>31.92283333333335</v>
+        <v>31.92616666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5155,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="C132" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="D132" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="E132" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="F132" t="n">
-        <v>23.064</v>
+        <v>1411.7723</v>
       </c>
       <c r="G132" t="n">
-        <v>31.91783333333335</v>
+        <v>31.92283333333335</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5202,10 @@
         <v>31.9</v>
       </c>
       <c r="F133" t="n">
-        <v>86.965</v>
+        <v>23.064</v>
       </c>
       <c r="G133" t="n">
-        <v>31.91283333333335</v>
+        <v>31.91783333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5237,10 @@
         <v>31.9</v>
       </c>
       <c r="F134" t="n">
-        <v>14.855</v>
+        <v>86.965</v>
       </c>
       <c r="G134" t="n">
-        <v>31.90616666666669</v>
+        <v>31.91283333333335</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5272,10 @@
         <v>31.9</v>
       </c>
       <c r="F135" t="n">
-        <v>26.1884</v>
+        <v>14.855</v>
       </c>
       <c r="G135" t="n">
-        <v>31.90116666666669</v>
+        <v>31.90616666666669</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,7 +5307,7 @@
         <v>31.9</v>
       </c>
       <c r="F136" t="n">
-        <v>178.1621</v>
+        <v>26.1884</v>
       </c>
       <c r="G136" t="n">
         <v>31.90116666666669</v>
@@ -5170,7 +5342,7 @@
         <v>31.9</v>
       </c>
       <c r="F137" t="n">
-        <v>11373.8266</v>
+        <v>178.1621</v>
       </c>
       <c r="G137" t="n">
         <v>31.90116666666669</v>
@@ -5193,22 +5365,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C138" t="n">
-        <v>31.61</v>
+        <v>31.9</v>
       </c>
       <c r="D138" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="E138" t="n">
-        <v>31.61</v>
+        <v>31.9</v>
       </c>
       <c r="F138" t="n">
-        <v>8565.370500000001</v>
+        <v>11373.8266</v>
       </c>
       <c r="G138" t="n">
-        <v>31.89783333333336</v>
+        <v>31.90116666666669</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5400,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C139" t="n">
         <v>31.61</v>
       </c>
-      <c r="C139" t="n">
-        <v>31.55</v>
-      </c>
       <c r="D139" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E139" t="n">
-        <v>31.55</v>
+        <v>31.61</v>
       </c>
       <c r="F139" t="n">
-        <v>26106.5887</v>
+        <v>8565.370500000001</v>
       </c>
       <c r="G139" t="n">
-        <v>31.89366666666669</v>
+        <v>31.89783333333336</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5435,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>31.7</v>
+        <v>31.61</v>
       </c>
       <c r="C140" t="n">
-        <v>31.7</v>
+        <v>31.55</v>
       </c>
       <c r="D140" t="n">
         <v>31.7</v>
       </c>
       <c r="E140" t="n">
-        <v>31.7</v>
+        <v>31.55</v>
       </c>
       <c r="F140" t="n">
-        <v>23.2676</v>
+        <v>26106.5887</v>
       </c>
       <c r="G140" t="n">
-        <v>31.89500000000002</v>
+        <v>31.89366666666669</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5482,10 @@
         <v>31.7</v>
       </c>
       <c r="F141" t="n">
-        <v>23004.9998</v>
+        <v>23.2676</v>
       </c>
       <c r="G141" t="n">
-        <v>31.88700000000002</v>
+        <v>31.89500000000002</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,7 +5517,7 @@
         <v>31.7</v>
       </c>
       <c r="F142" t="n">
-        <v>13133.0589</v>
+        <v>23004.9998</v>
       </c>
       <c r="G142" t="n">
         <v>31.88700000000002</v>
@@ -5380,10 +5552,10 @@
         <v>31.7</v>
       </c>
       <c r="F143" t="n">
-        <v>80.85173501577287</v>
+        <v>13133.0589</v>
       </c>
       <c r="G143" t="n">
-        <v>31.88216666666669</v>
+        <v>31.88700000000002</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5575,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>31.56</v>
+        <v>31.7</v>
       </c>
       <c r="C144" t="n">
-        <v>31.55</v>
+        <v>31.7</v>
       </c>
       <c r="D144" t="n">
-        <v>31.56</v>
+        <v>31.7</v>
       </c>
       <c r="E144" t="n">
-        <v>31.55</v>
+        <v>31.7</v>
       </c>
       <c r="F144" t="n">
-        <v>62417.1075</v>
+        <v>80.85173501577287</v>
       </c>
       <c r="G144" t="n">
-        <v>31.87466666666669</v>
+        <v>31.88216666666669</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5610,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>31.53</v>
+        <v>31.56</v>
       </c>
       <c r="C145" t="n">
-        <v>31.5</v>
+        <v>31.55</v>
       </c>
       <c r="D145" t="n">
-        <v>31.53</v>
+        <v>31.56</v>
       </c>
       <c r="E145" t="n">
-        <v>31.5</v>
+        <v>31.55</v>
       </c>
       <c r="F145" t="n">
-        <v>76004.1603</v>
+        <v>62417.1075</v>
       </c>
       <c r="G145" t="n">
-        <v>31.86633333333335</v>
+        <v>31.87466666666669</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5645,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>31.5</v>
+        <v>31.53</v>
       </c>
       <c r="C146" t="n">
         <v>31.5</v>
       </c>
       <c r="D146" t="n">
-        <v>31.5</v>
+        <v>31.53</v>
       </c>
       <c r="E146" t="n">
         <v>31.5</v>
       </c>
       <c r="F146" t="n">
-        <v>22276.8151</v>
+        <v>76004.1603</v>
       </c>
       <c r="G146" t="n">
-        <v>31.85800000000002</v>
+        <v>31.86633333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5692,10 @@
         <v>31.5</v>
       </c>
       <c r="F147" t="n">
-        <v>3319.9055</v>
+        <v>22276.8151</v>
       </c>
       <c r="G147" t="n">
-        <v>31.84966666666669</v>
+        <v>31.85800000000002</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5727,10 @@
         <v>31.5</v>
       </c>
       <c r="F148" t="n">
-        <v>4561.5778</v>
+        <v>3319.9055</v>
       </c>
       <c r="G148" t="n">
-        <v>31.83933333333336</v>
+        <v>31.84966666666669</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5750,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="C149" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="D149" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="E149" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="F149" t="n">
-        <v>24330</v>
+        <v>4561.5778</v>
       </c>
       <c r="G149" t="n">
-        <v>31.82400000000003</v>
+        <v>31.83933333333336</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5785,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>31.21</v>
+        <v>31.3</v>
       </c>
       <c r="C150" t="n">
-        <v>31.21</v>
+        <v>31.2</v>
       </c>
       <c r="D150" t="n">
-        <v>31.21</v>
+        <v>31.3</v>
       </c>
       <c r="E150" t="n">
-        <v>31.21</v>
+        <v>31.2</v>
       </c>
       <c r="F150" t="n">
-        <v>7085.0495</v>
+        <v>24330</v>
       </c>
       <c r="G150" t="n">
-        <v>31.81583333333336</v>
+        <v>31.82400000000003</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5820,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>31.2</v>
+        <v>31.21</v>
       </c>
       <c r="C151" t="n">
-        <v>32.04</v>
+        <v>31.21</v>
       </c>
       <c r="D151" t="n">
-        <v>32.04</v>
+        <v>31.21</v>
       </c>
       <c r="E151" t="n">
-        <v>31.02</v>
+        <v>31.21</v>
       </c>
       <c r="F151" t="n">
-        <v>70000</v>
+        <v>7085.0495</v>
       </c>
       <c r="G151" t="n">
-        <v>31.81483333333336</v>
+        <v>31.81583333333336</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5855,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>31.87</v>
+        <v>31.2</v>
       </c>
       <c r="C152" t="n">
-        <v>31.87</v>
+        <v>32.04</v>
       </c>
       <c r="D152" t="n">
-        <v>31.87</v>
+        <v>32.04</v>
       </c>
       <c r="E152" t="n">
-        <v>31.87</v>
+        <v>31.02</v>
       </c>
       <c r="F152" t="n">
-        <v>131900.4284</v>
+        <v>70000</v>
       </c>
       <c r="G152" t="n">
-        <v>31.81100000000003</v>
+        <v>31.81483333333336</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5890,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>31.3</v>
+        <v>31.87</v>
       </c>
       <c r="C153" t="n">
-        <v>31.22</v>
+        <v>31.87</v>
       </c>
       <c r="D153" t="n">
-        <v>31.3</v>
+        <v>31.87</v>
       </c>
       <c r="E153" t="n">
-        <v>31.22</v>
+        <v>31.87</v>
       </c>
       <c r="F153" t="n">
-        <v>1383.8972</v>
+        <v>131900.4284</v>
       </c>
       <c r="G153" t="n">
-        <v>31.79650000000003</v>
+        <v>31.81100000000003</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5925,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="C154" t="n">
-        <v>31.2</v>
+        <v>31.22</v>
       </c>
       <c r="D154" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="E154" t="n">
-        <v>31.2</v>
+        <v>31.22</v>
       </c>
       <c r="F154" t="n">
-        <v>2134.5968</v>
+        <v>1383.8972</v>
       </c>
       <c r="G154" t="n">
-        <v>31.78483333333336</v>
+        <v>31.79650000000003</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5960,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="C155" t="n">
-        <v>31.03</v>
+        <v>31.2</v>
       </c>
       <c r="D155" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="E155" t="n">
-        <v>31.03</v>
+        <v>31.2</v>
       </c>
       <c r="F155" t="n">
-        <v>33543.689</v>
+        <v>2134.5968</v>
       </c>
       <c r="G155" t="n">
-        <v>31.7736666666667</v>
+        <v>31.78483333333336</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5995,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>31.03</v>
+        <v>31.1</v>
       </c>
       <c r="C156" t="n">
         <v>31.03</v>
       </c>
       <c r="D156" t="n">
-        <v>31.03</v>
+        <v>31.1</v>
       </c>
       <c r="E156" t="n">
         <v>31.03</v>
       </c>
       <c r="F156" t="n">
-        <v>35.3822</v>
+        <v>33543.689</v>
       </c>
       <c r="G156" t="n">
-        <v>31.76250000000003</v>
+        <v>31.7736666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +6042,10 @@
         <v>31.03</v>
       </c>
       <c r="F157" t="n">
-        <v>108650.2237</v>
+        <v>35.3822</v>
       </c>
       <c r="G157" t="n">
-        <v>31.75133333333336</v>
+        <v>31.76250000000003</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5896,19 +6068,19 @@
         <v>31.03</v>
       </c>
       <c r="C158" t="n">
-        <v>31.6</v>
+        <v>31.03</v>
       </c>
       <c r="D158" t="n">
-        <v>31.6</v>
+        <v>31.03</v>
       </c>
       <c r="E158" t="n">
         <v>31.03</v>
       </c>
       <c r="F158" t="n">
-        <v>6175.046</v>
+        <v>108650.2237</v>
       </c>
       <c r="G158" t="n">
-        <v>31.75200000000002</v>
+        <v>31.75133333333336</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +6100,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>31.3</v>
+        <v>31.03</v>
       </c>
       <c r="C159" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="D159" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="E159" t="n">
-        <v>31.3</v>
+        <v>31.03</v>
       </c>
       <c r="F159" t="n">
-        <v>17</v>
+        <v>6175.046</v>
       </c>
       <c r="G159" t="n">
-        <v>31.74833333333336</v>
+        <v>31.75200000000002</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5966,19 +6138,19 @@
         <v>31.3</v>
       </c>
       <c r="C160" t="n">
-        <v>32.03</v>
+        <v>31.3</v>
       </c>
       <c r="D160" t="n">
-        <v>32.03</v>
+        <v>31.3</v>
       </c>
       <c r="E160" t="n">
         <v>31.3</v>
       </c>
       <c r="F160" t="n">
-        <v>74542.46064018107</v>
+        <v>17</v>
       </c>
       <c r="G160" t="n">
-        <v>31.75683333333336</v>
+        <v>31.74833333333336</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6170,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>31.22</v>
+        <v>31.3</v>
       </c>
       <c r="C161" t="n">
-        <v>31</v>
+        <v>32.03</v>
       </c>
       <c r="D161" t="n">
-        <v>31.22</v>
+        <v>32.03</v>
       </c>
       <c r="E161" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="F161" t="n">
-        <v>47481.8923</v>
+        <v>74542.46064018107</v>
       </c>
       <c r="G161" t="n">
-        <v>31.74800000000003</v>
+        <v>31.75683333333336</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6205,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>30.92</v>
+        <v>31.22</v>
       </c>
       <c r="C162" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="D162" t="n">
-        <v>30.92</v>
+        <v>31.22</v>
       </c>
       <c r="E162" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="F162" t="n">
-        <v>4495.4984</v>
+        <v>47481.8923</v>
       </c>
       <c r="G162" t="n">
-        <v>31.73600000000003</v>
+        <v>31.74800000000003</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6240,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>30.75</v>
+        <v>30.92</v>
       </c>
       <c r="C163" t="n">
-        <v>30.75</v>
+        <v>30.8</v>
       </c>
       <c r="D163" t="n">
-        <v>30.75</v>
+        <v>30.92</v>
       </c>
       <c r="E163" t="n">
-        <v>30.75</v>
+        <v>30.8</v>
       </c>
       <c r="F163" t="n">
-        <v>9110.4038</v>
+        <v>4495.4984</v>
       </c>
       <c r="G163" t="n">
-        <v>31.71316666666669</v>
+        <v>31.73600000000003</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6275,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>30.7</v>
+        <v>30.75</v>
       </c>
       <c r="C164" t="n">
-        <v>30.7</v>
+        <v>30.75</v>
       </c>
       <c r="D164" t="n">
-        <v>30.7</v>
+        <v>30.75</v>
       </c>
       <c r="E164" t="n">
-        <v>30.7</v>
+        <v>30.75</v>
       </c>
       <c r="F164" t="n">
-        <v>15000</v>
+        <v>9110.4038</v>
       </c>
       <c r="G164" t="n">
-        <v>31.69000000000003</v>
+        <v>31.71316666666669</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6310,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="C165" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="D165" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="E165" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="F165" t="n">
-        <v>29642.7652733119</v>
+        <v>15000</v>
       </c>
       <c r="G165" t="n">
-        <v>31.67350000000003</v>
+        <v>31.69000000000003</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6345,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>31.23</v>
+        <v>31.1</v>
       </c>
       <c r="C166" t="n">
-        <v>31.23</v>
+        <v>31.1</v>
       </c>
       <c r="D166" t="n">
-        <v>31.23</v>
+        <v>31.1</v>
       </c>
       <c r="E166" t="n">
-        <v>31.23</v>
+        <v>31.1</v>
       </c>
       <c r="F166" t="n">
-        <v>73.6225</v>
+        <v>29642.7652733119</v>
       </c>
       <c r="G166" t="n">
-        <v>31.6591666666667</v>
+        <v>31.67350000000003</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,35 +6380,31 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>30.7</v>
+        <v>31.23</v>
       </c>
       <c r="C167" t="n">
-        <v>30.7</v>
+        <v>31.23</v>
       </c>
       <c r="D167" t="n">
-        <v>30.7</v>
+        <v>31.23</v>
       </c>
       <c r="E167" t="n">
-        <v>30.7</v>
+        <v>31.23</v>
       </c>
       <c r="F167" t="n">
-        <v>13002.2719</v>
+        <v>73.6225</v>
       </c>
       <c r="G167" t="n">
-        <v>31.63600000000003</v>
+        <v>31.6591666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K167" t="n">
-        <v>31.23</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
@@ -6259,28 +6427,20 @@
         <v>30.7</v>
       </c>
       <c r="F168" t="n">
-        <v>23079.3031</v>
+        <v>13002.2719</v>
       </c>
       <c r="G168" t="n">
-        <v>31.61283333333337</v>
+        <v>31.63600000000003</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K168" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6290,40 +6450,32 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="C169" t="n">
         <v>30.7</v>
       </c>
       <c r="D169" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="E169" t="n">
         <v>30.7</v>
       </c>
       <c r="F169" t="n">
-        <v>259329.3709</v>
+        <v>23079.3031</v>
       </c>
       <c r="G169" t="n">
-        <v>31.58950000000004</v>
+        <v>31.61283333333337</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K169" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6333,22 +6485,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="C170" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="D170" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="E170" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="F170" t="n">
-        <v>193.8503</v>
+        <v>259329.3709</v>
       </c>
       <c r="G170" t="n">
-        <v>31.57083333333337</v>
+        <v>31.58950000000004</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6357,14 +6509,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6374,22 +6520,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>30.74</v>
+        <v>31</v>
       </c>
       <c r="C171" t="n">
-        <v>31.7</v>
+        <v>31</v>
       </c>
       <c r="D171" t="n">
-        <v>31.7</v>
+        <v>31</v>
       </c>
       <c r="E171" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="F171" t="n">
-        <v>150000</v>
+        <v>193.8503</v>
       </c>
       <c r="G171" t="n">
-        <v>31.56283333333337</v>
+        <v>31.57083333333337</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6398,14 +6544,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6415,22 +6555,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>31.6</v>
+        <v>30.74</v>
       </c>
       <c r="C172" t="n">
-        <v>31.2</v>
+        <v>31.7</v>
       </c>
       <c r="D172" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="E172" t="n">
-        <v>31.2</v>
+        <v>30.7</v>
       </c>
       <c r="F172" t="n">
-        <v>1593.0621</v>
+        <v>150000</v>
       </c>
       <c r="G172" t="n">
-        <v>31.54650000000004</v>
+        <v>31.56283333333337</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6439,14 +6579,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6456,22 +6590,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="C173" t="n">
         <v>31.2</v>
       </c>
       <c r="D173" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="E173" t="n">
         <v>31.2</v>
       </c>
       <c r="F173" t="n">
-        <v>128.339</v>
+        <v>1593.0621</v>
       </c>
       <c r="G173" t="n">
-        <v>31.53033333333337</v>
+        <v>31.54650000000004</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6480,14 +6614,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6497,22 +6625,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="C174" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="D174" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="E174" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="F174" t="n">
-        <v>155.3845</v>
+        <v>128.339</v>
       </c>
       <c r="G174" t="n">
-        <v>31.5191666666667</v>
+        <v>31.53033333333337</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6521,14 +6649,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6550,10 +6672,10 @@
         <v>31.5</v>
       </c>
       <c r="F175" t="n">
-        <v>287.8497</v>
+        <v>155.3845</v>
       </c>
       <c r="G175" t="n">
-        <v>31.51250000000003</v>
+        <v>31.5191666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6562,14 +6684,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6591,10 +6707,10 @@
         <v>31.5</v>
       </c>
       <c r="F176" t="n">
-        <v>133.2228</v>
+        <v>287.8497</v>
       </c>
       <c r="G176" t="n">
-        <v>31.50583333333337</v>
+        <v>31.51250000000003</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6603,14 +6719,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6620,22 +6730,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="C177" t="n">
-        <v>31.01</v>
+        <v>31.5</v>
       </c>
       <c r="D177" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="E177" t="n">
-        <v>31.01</v>
+        <v>31.5</v>
       </c>
       <c r="F177" t="n">
-        <v>19390.5121</v>
+        <v>133.2228</v>
       </c>
       <c r="G177" t="n">
-        <v>31.49100000000003</v>
+        <v>31.50583333333337</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6644,14 +6754,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6661,22 +6765,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C178" t="n">
         <v>31.01</v>
       </c>
-      <c r="C178" t="n">
-        <v>31.29</v>
-      </c>
       <c r="D178" t="n">
-        <v>31.29</v>
+        <v>31.2</v>
       </c>
       <c r="E178" t="n">
-        <v>31</v>
+        <v>31.01</v>
       </c>
       <c r="F178" t="n">
-        <v>14665.0401</v>
+        <v>19390.5121</v>
       </c>
       <c r="G178" t="n">
-        <v>31.4841666666667</v>
+        <v>31.49100000000003</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6685,14 +6789,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6702,22 +6800,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>31.1</v>
+        <v>31.01</v>
       </c>
       <c r="C179" t="n">
-        <v>31.1</v>
+        <v>31.29</v>
       </c>
       <c r="D179" t="n">
-        <v>31.1</v>
+        <v>31.29</v>
       </c>
       <c r="E179" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F179" t="n">
-        <v>2254.5608</v>
+        <v>14665.0401</v>
       </c>
       <c r="G179" t="n">
-        <v>31.47083333333336</v>
+        <v>31.4841666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6726,14 +6824,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6755,10 +6847,10 @@
         <v>31.1</v>
       </c>
       <c r="F180" t="n">
-        <v>14394.0144</v>
+        <v>2254.5608</v>
       </c>
       <c r="G180" t="n">
-        <v>31.45916666666669</v>
+        <v>31.47083333333336</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6767,14 +6859,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6784,22 +6870,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>30.99</v>
+        <v>31.1</v>
       </c>
       <c r="C181" t="n">
-        <v>30.99</v>
+        <v>31.1</v>
       </c>
       <c r="D181" t="n">
-        <v>30.99</v>
+        <v>31.1</v>
       </c>
       <c r="E181" t="n">
-        <v>30.99</v>
+        <v>31.1</v>
       </c>
       <c r="F181" t="n">
-        <v>20427.6714</v>
+        <v>14394.0144</v>
       </c>
       <c r="G181" t="n">
-        <v>31.44150000000003</v>
+        <v>31.45916666666669</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6808,14 +6894,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6828,19 +6908,19 @@
         <v>30.99</v>
       </c>
       <c r="C182" t="n">
-        <v>31.6</v>
+        <v>30.99</v>
       </c>
       <c r="D182" t="n">
-        <v>31.6</v>
+        <v>30.99</v>
       </c>
       <c r="E182" t="n">
         <v>30.99</v>
       </c>
       <c r="F182" t="n">
-        <v>1718</v>
+        <v>20427.6714</v>
       </c>
       <c r="G182" t="n">
-        <v>31.43816666666669</v>
+        <v>31.44150000000003</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6849,14 +6929,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6866,22 +6940,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>31.58</v>
+        <v>30.99</v>
       </c>
       <c r="C183" t="n">
-        <v>31.58</v>
+        <v>31.6</v>
       </c>
       <c r="D183" t="n">
-        <v>31.58</v>
+        <v>31.6</v>
       </c>
       <c r="E183" t="n">
-        <v>31.58</v>
+        <v>30.99</v>
       </c>
       <c r="F183" t="n">
-        <v>158.3280557314756</v>
+        <v>1718</v>
       </c>
       <c r="G183" t="n">
-        <v>31.43033333333336</v>
+        <v>31.43816666666669</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6890,14 +6964,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6907,22 +6975,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>31.1</v>
+        <v>31.58</v>
       </c>
       <c r="C184" t="n">
-        <v>31.1</v>
+        <v>31.58</v>
       </c>
       <c r="D184" t="n">
-        <v>31.1</v>
+        <v>31.58</v>
       </c>
       <c r="E184" t="n">
-        <v>31.1</v>
+        <v>31.58</v>
       </c>
       <c r="F184" t="n">
-        <v>491</v>
+        <v>158.3280557314756</v>
       </c>
       <c r="G184" t="n">
-        <v>31.42033333333336</v>
+        <v>31.43033333333336</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6931,14 +6999,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6948,22 +7010,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>31.5</v>
+        <v>31.1</v>
       </c>
       <c r="C185" t="n">
-        <v>31.58</v>
+        <v>31.1</v>
       </c>
       <c r="D185" t="n">
-        <v>31.58</v>
+        <v>31.1</v>
       </c>
       <c r="E185" t="n">
-        <v>31.5</v>
+        <v>31.1</v>
       </c>
       <c r="F185" t="n">
-        <v>697</v>
+        <v>491</v>
       </c>
       <c r="G185" t="n">
-        <v>31.41500000000002</v>
+        <v>31.42033333333336</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6972,14 +7034,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6989,22 +7045,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="C186" t="n">
-        <v>31.4</v>
+        <v>31.58</v>
       </c>
       <c r="D186" t="n">
-        <v>31.4</v>
+        <v>31.58</v>
       </c>
       <c r="E186" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="F186" t="n">
-        <v>10789.9353</v>
+        <v>697</v>
       </c>
       <c r="G186" t="n">
-        <v>31.41166666666669</v>
+        <v>31.41500000000002</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7013,14 +7069,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7042,10 +7092,10 @@
         <v>31.4</v>
       </c>
       <c r="F187" t="n">
-        <v>1240.7772</v>
+        <v>10789.9353</v>
       </c>
       <c r="G187" t="n">
-        <v>31.40333333333336</v>
+        <v>31.41166666666669</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7054,14 +7104,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7071,19 +7115,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>31.71</v>
+        <v>31.4</v>
       </c>
       <c r="C188" t="n">
-        <v>31.9</v>
+        <v>31.4</v>
       </c>
       <c r="D188" t="n">
-        <v>31.9</v>
+        <v>31.4</v>
       </c>
       <c r="E188" t="n">
-        <v>31.71</v>
+        <v>31.4</v>
       </c>
       <c r="F188" t="n">
-        <v>2062</v>
+        <v>1240.7772</v>
       </c>
       <c r="G188" t="n">
         <v>31.40333333333336</v>
@@ -7095,14 +7139,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7112,22 +7150,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>31.4</v>
+        <v>31.71</v>
       </c>
       <c r="C189" t="n">
-        <v>31.4</v>
+        <v>31.9</v>
       </c>
       <c r="D189" t="n">
-        <v>31.4</v>
+        <v>31.9</v>
       </c>
       <c r="E189" t="n">
-        <v>31.4</v>
+        <v>31.71</v>
       </c>
       <c r="F189" t="n">
-        <v>1049.2332</v>
+        <v>2062</v>
       </c>
       <c r="G189" t="n">
-        <v>31.40000000000003</v>
+        <v>31.40333333333336</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7136,14 +7174,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7153,22 +7185,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>31.32</v>
+        <v>31.4</v>
       </c>
       <c r="C190" t="n">
-        <v>31.9</v>
+        <v>31.4</v>
       </c>
       <c r="D190" t="n">
-        <v>31.9</v>
+        <v>31.4</v>
       </c>
       <c r="E190" t="n">
-        <v>31.1</v>
+        <v>31.4</v>
       </c>
       <c r="F190" t="n">
-        <v>85000</v>
+        <v>1049.2332</v>
       </c>
       <c r="G190" t="n">
-        <v>31.4016666666667</v>
+        <v>31.40000000000003</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7177,14 +7209,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7194,22 +7220,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>31.71</v>
+        <v>31.32</v>
       </c>
       <c r="C191" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D191" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E191" t="n">
-        <v>31.71</v>
+        <v>31.1</v>
       </c>
       <c r="F191" t="n">
-        <v>5797</v>
+        <v>85000</v>
       </c>
       <c r="G191" t="n">
-        <v>31.40500000000003</v>
+        <v>31.4016666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7218,14 +7244,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7235,7 +7255,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>31.22</v>
+        <v>31.71</v>
       </c>
       <c r="C192" t="n">
         <v>32</v>
@@ -7244,13 +7264,13 @@
         <v>32</v>
       </c>
       <c r="E192" t="n">
-        <v>31.1</v>
+        <v>31.71</v>
       </c>
       <c r="F192" t="n">
-        <v>95000</v>
+        <v>5797</v>
       </c>
       <c r="G192" t="n">
-        <v>31.40666666666669</v>
+        <v>31.40500000000003</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7259,14 +7279,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7276,22 +7290,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>31.58</v>
+        <v>31.22</v>
       </c>
       <c r="C193" t="n">
-        <v>31.2</v>
+        <v>32</v>
       </c>
       <c r="D193" t="n">
-        <v>31.58</v>
+        <v>32</v>
       </c>
       <c r="E193" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="F193" t="n">
-        <v>40</v>
+        <v>95000</v>
       </c>
       <c r="G193" t="n">
-        <v>31.39500000000003</v>
+        <v>31.40666666666669</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7300,14 +7314,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7317,22 +7325,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>31.2</v>
+        <v>31.58</v>
       </c>
       <c r="C194" t="n">
         <v>31.2</v>
       </c>
       <c r="D194" t="n">
-        <v>31.2</v>
+        <v>31.58</v>
       </c>
       <c r="E194" t="n">
         <v>31.2</v>
       </c>
       <c r="F194" t="n">
-        <v>13261.2397</v>
+        <v>40</v>
       </c>
       <c r="G194" t="n">
-        <v>31.38333333333336</v>
+        <v>31.39500000000003</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7341,14 +7349,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7358,22 +7360,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>31.34</v>
+        <v>31.2</v>
       </c>
       <c r="C195" t="n">
-        <v>31.34</v>
+        <v>31.2</v>
       </c>
       <c r="D195" t="n">
-        <v>31.34</v>
+        <v>31.2</v>
       </c>
       <c r="E195" t="n">
-        <v>31.34</v>
+        <v>31.2</v>
       </c>
       <c r="F195" t="n">
-        <v>1740.8552</v>
+        <v>13261.2397</v>
       </c>
       <c r="G195" t="n">
-        <v>31.37400000000002</v>
+        <v>31.38333333333336</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7382,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7402,19 +7398,19 @@
         <v>31.34</v>
       </c>
       <c r="C196" t="n">
-        <v>31.1</v>
+        <v>31.34</v>
       </c>
       <c r="D196" t="n">
         <v>31.34</v>
       </c>
       <c r="E196" t="n">
-        <v>31.1</v>
+        <v>31.34</v>
       </c>
       <c r="F196" t="n">
-        <v>11264.5272</v>
+        <v>1740.8552</v>
       </c>
       <c r="G196" t="n">
-        <v>31.36066666666669</v>
+        <v>31.37400000000002</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7423,14 +7419,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7440,22 +7430,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>31.5</v>
+        <v>31.34</v>
       </c>
       <c r="C197" t="n">
-        <v>31.5</v>
+        <v>31.1</v>
       </c>
       <c r="D197" t="n">
-        <v>31.5</v>
+        <v>31.34</v>
       </c>
       <c r="E197" t="n">
-        <v>31.5</v>
+        <v>31.1</v>
       </c>
       <c r="F197" t="n">
-        <v>21.5214</v>
+        <v>11264.5272</v>
       </c>
       <c r="G197" t="n">
-        <v>31.35400000000002</v>
+        <v>31.36066666666669</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7464,14 +7454,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7481,22 +7465,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="C198" t="n">
-        <v>32.05</v>
+        <v>31.5</v>
       </c>
       <c r="D198" t="n">
-        <v>32.05</v>
+        <v>31.5</v>
       </c>
       <c r="E198" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="F198" t="n">
-        <v>273736.7072</v>
+        <v>21.5214</v>
       </c>
       <c r="G198" t="n">
-        <v>31.36133333333335</v>
+        <v>31.35400000000002</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7505,14 +7489,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7522,22 +7500,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>31.8</v>
+        <v>31.2</v>
       </c>
       <c r="C199" t="n">
-        <v>31.8</v>
+        <v>32.05</v>
       </c>
       <c r="D199" t="n">
-        <v>31.8</v>
+        <v>32.05</v>
       </c>
       <c r="E199" t="n">
-        <v>31.8</v>
+        <v>31.1</v>
       </c>
       <c r="F199" t="n">
-        <v>2569.4072</v>
+        <v>273736.7072</v>
       </c>
       <c r="G199" t="n">
-        <v>31.36550000000002</v>
+        <v>31.36133333333335</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7546,14 +7524,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7563,22 +7535,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>31.4</v>
+        <v>31.8</v>
       </c>
       <c r="C200" t="n">
-        <v>31.3</v>
+        <v>31.8</v>
       </c>
       <c r="D200" t="n">
-        <v>31.4</v>
+        <v>31.8</v>
       </c>
       <c r="E200" t="n">
-        <v>31.3</v>
+        <v>31.8</v>
       </c>
       <c r="F200" t="n">
         <v>2569.4072</v>
       </c>
       <c r="G200" t="n">
-        <v>31.35883333333335</v>
+        <v>31.36550000000002</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7587,14 +7559,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7604,22 +7570,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="C201" t="n">
         <v>31.3</v>
       </c>
       <c r="D201" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="E201" t="n">
         <v>31.3</v>
       </c>
       <c r="F201" t="n">
-        <v>2128.6668</v>
+        <v>2569.4072</v>
       </c>
       <c r="G201" t="n">
-        <v>31.35216666666668</v>
+        <v>31.35883333333335</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7628,14 +7594,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7645,19 +7605,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="C202" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="D202" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="E202" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="F202" t="n">
-        <v>16</v>
+        <v>2128.6668</v>
       </c>
       <c r="G202" t="n">
         <v>31.35216666666668</v>
@@ -7669,14 +7629,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7686,22 +7640,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="C203" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="D203" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="E203" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="F203" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="G203" t="n">
-        <v>31.34883333333335</v>
+        <v>31.35216666666668</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7710,14 +7664,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7727,22 +7675,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>31.24</v>
+        <v>31.5</v>
       </c>
       <c r="C204" t="n">
-        <v>31.24</v>
+        <v>31.5</v>
       </c>
       <c r="D204" t="n">
-        <v>31.24</v>
+        <v>31.5</v>
       </c>
       <c r="E204" t="n">
-        <v>31.24</v>
+        <v>31.5</v>
       </c>
       <c r="F204" t="n">
-        <v>834.7915</v>
+        <v>500</v>
       </c>
       <c r="G204" t="n">
-        <v>31.34366666666669</v>
+        <v>31.34883333333335</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7751,14 +7699,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7768,22 +7710,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>31.22</v>
+        <v>31.24</v>
       </c>
       <c r="C205" t="n">
-        <v>31.22</v>
+        <v>31.24</v>
       </c>
       <c r="D205" t="n">
-        <v>31.22</v>
+        <v>31.24</v>
       </c>
       <c r="E205" t="n">
-        <v>31.22</v>
+        <v>31.24</v>
       </c>
       <c r="F205" t="n">
-        <v>736.7071999999999</v>
+        <v>834.7915</v>
       </c>
       <c r="G205" t="n">
-        <v>31.33900000000002</v>
+        <v>31.34366666666669</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7792,14 +7734,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7809,22 +7745,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>31</v>
+        <v>31.22</v>
       </c>
       <c r="C206" t="n">
-        <v>31</v>
+        <v>31.22</v>
       </c>
       <c r="D206" t="n">
-        <v>31</v>
+        <v>31.22</v>
       </c>
       <c r="E206" t="n">
-        <v>31</v>
+        <v>31.22</v>
       </c>
       <c r="F206" t="n">
-        <v>834.7915</v>
+        <v>736.7071999999999</v>
       </c>
       <c r="G206" t="n">
-        <v>31.33066666666668</v>
+        <v>31.33900000000002</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7833,14 +7769,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7850,22 +7780,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>30.99</v>
+        <v>31</v>
       </c>
       <c r="C207" t="n">
-        <v>30.99</v>
+        <v>31</v>
       </c>
       <c r="D207" t="n">
-        <v>30.99</v>
+        <v>31</v>
       </c>
       <c r="E207" t="n">
-        <v>30.99</v>
+        <v>31</v>
       </c>
       <c r="F207" t="n">
-        <v>4585.9311</v>
+        <v>834.7915</v>
       </c>
       <c r="G207" t="n">
-        <v>31.32216666666669</v>
+        <v>31.33066666666668</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7874,14 +7804,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7891,22 +7815,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>31.1</v>
+        <v>30.99</v>
       </c>
       <c r="C208" t="n">
-        <v>30.98</v>
+        <v>30.99</v>
       </c>
       <c r="D208" t="n">
-        <v>31.1</v>
+        <v>30.99</v>
       </c>
       <c r="E208" t="n">
-        <v>30.98</v>
+        <v>30.99</v>
       </c>
       <c r="F208" t="n">
-        <v>6915.2594</v>
+        <v>4585.9311</v>
       </c>
       <c r="G208" t="n">
-        <v>31.31350000000002</v>
+        <v>31.32216666666669</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7915,14 +7839,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7935,19 +7853,19 @@
         <v>31.1</v>
       </c>
       <c r="C209" t="n">
-        <v>31.1</v>
+        <v>30.98</v>
       </c>
       <c r="D209" t="n">
         <v>31.1</v>
       </c>
       <c r="E209" t="n">
-        <v>31.1</v>
+        <v>30.98</v>
       </c>
       <c r="F209" t="n">
-        <v>100</v>
+        <v>6915.2594</v>
       </c>
       <c r="G209" t="n">
-        <v>31.31183333333335</v>
+        <v>31.31350000000002</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7956,14 +7874,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7976,19 +7888,19 @@
         <v>31.1</v>
       </c>
       <c r="C210" t="n">
-        <v>30.98</v>
+        <v>31.1</v>
       </c>
       <c r="D210" t="n">
-        <v>31.22</v>
+        <v>31.1</v>
       </c>
       <c r="E210" t="n">
-        <v>30.98</v>
+        <v>31.1</v>
       </c>
       <c r="F210" t="n">
-        <v>33634.87168030109</v>
+        <v>100</v>
       </c>
       <c r="G210" t="n">
-        <v>31.30800000000001</v>
+        <v>31.31183333333335</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7997,14 +7909,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8014,22 +7920,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="C211" t="n">
-        <v>31</v>
+        <v>30.98</v>
       </c>
       <c r="D211" t="n">
-        <v>31</v>
+        <v>31.22</v>
       </c>
       <c r="E211" t="n">
-        <v>31</v>
+        <v>30.98</v>
       </c>
       <c r="F211" t="n">
-        <v>6839.1764</v>
+        <v>33634.87168030109</v>
       </c>
       <c r="G211" t="n">
-        <v>31.29066666666668</v>
+        <v>31.30800000000001</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8038,14 +7944,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8055,22 +7955,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C212" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="D212" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="E212" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F212" t="n">
-        <v>54.66237942122186</v>
+        <v>6839.1764</v>
       </c>
       <c r="G212" t="n">
-        <v>31.27783333333335</v>
+        <v>31.29066666666668</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8079,14 +7979,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8096,22 +7990,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>30.85</v>
+        <v>31.1</v>
       </c>
       <c r="C213" t="n">
-        <v>30.75</v>
+        <v>31.1</v>
       </c>
       <c r="D213" t="n">
-        <v>30.85</v>
+        <v>31.1</v>
       </c>
       <c r="E213" t="n">
-        <v>30.75</v>
+        <v>31.1</v>
       </c>
       <c r="F213" t="n">
-        <v>31699.6623</v>
+        <v>54.66237942122186</v>
       </c>
       <c r="G213" t="n">
-        <v>31.27000000000002</v>
+        <v>31.27783333333335</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8120,14 +8014,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8137,22 +8025,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>31.1</v>
+        <v>30.85</v>
       </c>
       <c r="C214" t="n">
-        <v>31.1</v>
+        <v>30.75</v>
       </c>
       <c r="D214" t="n">
-        <v>31.1</v>
+        <v>30.85</v>
       </c>
       <c r="E214" t="n">
-        <v>31.1</v>
+        <v>30.75</v>
       </c>
       <c r="F214" t="n">
-        <v>62.6755</v>
+        <v>31699.6623</v>
       </c>
       <c r="G214" t="n">
-        <v>31.26833333333335</v>
+        <v>31.27000000000002</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8161,14 +8049,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8178,22 +8060,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="C215" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="D215" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="E215" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="F215" t="n">
-        <v>843.3105</v>
+        <v>62.6755</v>
       </c>
       <c r="G215" t="n">
-        <v>31.26616666666668</v>
+        <v>31.26833333333335</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8202,14 +8084,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8219,22 +8095,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>30.95</v>
+        <v>30.9</v>
       </c>
       <c r="C216" t="n">
-        <v>30.95</v>
+        <v>30.9</v>
       </c>
       <c r="D216" t="n">
-        <v>30.95</v>
+        <v>30.9</v>
       </c>
       <c r="E216" t="n">
-        <v>30.95</v>
+        <v>30.9</v>
       </c>
       <c r="F216" t="n">
-        <v>24583.5849</v>
+        <v>843.3105</v>
       </c>
       <c r="G216" t="n">
-        <v>31.26483333333335</v>
+        <v>31.26616666666668</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8243,14 +8119,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8260,22 +8130,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>30.9</v>
+        <v>30.95</v>
       </c>
       <c r="C217" t="n">
-        <v>30.9</v>
+        <v>30.95</v>
       </c>
       <c r="D217" t="n">
-        <v>30.9</v>
+        <v>30.95</v>
       </c>
       <c r="E217" t="n">
-        <v>30.9</v>
+        <v>30.95</v>
       </c>
       <c r="F217" t="n">
-        <v>14194.6348</v>
+        <v>24583.5849</v>
       </c>
       <c r="G217" t="n">
-        <v>31.26266666666669</v>
+        <v>31.26483333333335</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8284,14 +8154,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8301,22 +8165,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>31.23</v>
+        <v>30.9</v>
       </c>
       <c r="C218" t="n">
-        <v>31.93</v>
+        <v>30.9</v>
       </c>
       <c r="D218" t="n">
-        <v>31.93</v>
+        <v>30.9</v>
       </c>
       <c r="E218" t="n">
-        <v>31.23</v>
+        <v>30.9</v>
       </c>
       <c r="F218" t="n">
-        <v>138250.5141359223</v>
+        <v>14194.6348</v>
       </c>
       <c r="G218" t="n">
-        <v>31.26816666666669</v>
+        <v>31.26266666666669</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8325,14 +8189,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8342,22 +8200,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>31.71</v>
+        <v>31.23</v>
       </c>
       <c r="C219" t="n">
-        <v>31.71</v>
+        <v>31.93</v>
       </c>
       <c r="D219" t="n">
-        <v>31.71</v>
+        <v>31.93</v>
       </c>
       <c r="E219" t="n">
-        <v>31.71</v>
+        <v>31.23</v>
       </c>
       <c r="F219" t="n">
-        <v>69285.1611</v>
+        <v>138250.5141359223</v>
       </c>
       <c r="G219" t="n">
-        <v>31.27500000000002</v>
+        <v>31.26816666666669</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8366,14 +8224,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8383,22 +8235,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>31.7</v>
+        <v>31.71</v>
       </c>
       <c r="C220" t="n">
-        <v>31.7</v>
+        <v>31.71</v>
       </c>
       <c r="D220" t="n">
-        <v>31.7</v>
+        <v>31.71</v>
       </c>
       <c r="E220" t="n">
-        <v>31.7</v>
+        <v>31.71</v>
       </c>
       <c r="F220" t="n">
-        <v>410.0946372239748</v>
+        <v>69285.1611</v>
       </c>
       <c r="G220" t="n">
-        <v>31.26950000000003</v>
+        <v>31.27500000000002</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8407,14 +8259,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8424,39 +8270,68 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C221" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D221" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E221" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F221" t="n">
+        <v>410.0946372239748</v>
+      </c>
+      <c r="G221" t="n">
+        <v>31.26950000000003</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
         <v>31.31</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C222" t="n">
         <v>31.31</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D222" t="n">
         <v>31.31</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E222" t="n">
         <v>31.31</v>
       </c>
-      <c r="F221" t="n">
+      <c r="F222" t="n">
         <v>3293.7082</v>
       </c>
-      <c r="G221" t="n">
+      <c r="G222" t="n">
         <v>31.27466666666669</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest FCT.xlsx
+++ b/BackTest/2020-01-21 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N290"/>
+  <dimension ref="A1:M290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,1400 +1111,1359 @@
         <v>26774.52415349147</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>30.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="D23" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>73646.999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>26774.52415349147</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17</v>
+      </c>
+      <c r="G24" t="n">
+        <v>26791.52415349147</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
         <v>30.12</v>
       </c>
-      <c r="D23" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="F23" t="n">
-        <v>73646.999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>26774.52415349147</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D24" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E24" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>17</v>
-      </c>
-      <c r="G24" t="n">
-        <v>26791.52415349147</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="D25" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="E25" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6308.7868</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20482.73735349147</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>30.15</v>
       </c>
-      <c r="D25" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="C26" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="D26" t="n">
         <v>30.15</v>
       </c>
-      <c r="F25" t="n">
-        <v>6308.7868</v>
-      </c>
-      <c r="G25" t="n">
-        <v>20482.73735349147</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="E26" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>19375.6422</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1107.095153491467</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>30.15</v>
-      </c>
-      <c r="C26" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="D26" t="n">
-        <v>30.15</v>
-      </c>
-      <c r="E26" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19375.6422</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1107.095153491467</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>30.15</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>35773.5763</v>
+      </c>
+      <c r="G27" t="n">
+        <v>36880.67145349146</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>30.2</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>30.2</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>30.2</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E28" t="n">
         <v>30.2</v>
       </c>
-      <c r="F27" t="n">
-        <v>35773.5763</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F28" t="n">
+        <v>726.4237000000001</v>
+      </c>
+      <c r="G28" t="n">
         <v>36880.67145349146</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5925.3387</v>
+      </c>
+      <c r="G29" t="n">
+        <v>42806.01015349146</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
         <v>30.2</v>
       </c>
-      <c r="C28" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D28" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E28" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>726.4237000000001</v>
-      </c>
-      <c r="G28" t="n">
-        <v>36880.67145349146</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D30" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5512.056044314108</v>
+      </c>
+      <c r="G30" t="n">
+        <v>37293.95410917736</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
         <v>30.7</v>
       </c>
-      <c r="D29" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5925.3387</v>
-      </c>
-      <c r="G29" t="n">
-        <v>42806.01015349146</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>30.69</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>30.69</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>30.69</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E31" t="n">
         <v>30.69</v>
       </c>
-      <c r="F30" t="n">
-        <v>5512.056044314108</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F31" t="n">
+        <v>28487.94395568589</v>
+      </c>
+      <c r="G31" t="n">
         <v>37293.95410917736</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>30.69</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="D32" t="n">
         <v>30.69</v>
       </c>
-      <c r="D31" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="E31" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="F31" t="n">
-        <v>28487.94395568589</v>
-      </c>
-      <c r="G31" t="n">
-        <v>37293.95410917736</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="E32" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="F32" t="n">
+        <v>40287.6203</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-2993.666190822645</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="E33" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="F33" t="n">
+        <v>196500.5385</v>
+      </c>
+      <c r="G33" t="n">
+        <v>193506.8723091774</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
         <v>30.16</v>
       </c>
-      <c r="D32" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="E32" t="n">
-        <v>30.16</v>
-      </c>
-      <c r="F32" t="n">
-        <v>40287.6203</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-2993.666190822645</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="D33" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="E33" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="F33" t="n">
-        <v>196500.5385</v>
-      </c>
-      <c r="G33" t="n">
-        <v>193506.8723091774</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="E34" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7950000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-7756493.127690823</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="D35" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E35" t="n">
         <v>30.51</v>
       </c>
-      <c r="C34" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="D34" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="E34" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="F34" t="n">
-        <v>7950000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-7756493.127690823</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="F35" t="n">
+        <v>962212.8321</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-6794280.295590823</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C35" t="n">
-        <v>32.15</v>
-      </c>
-      <c r="D35" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E35" t="n">
-        <v>30.51</v>
-      </c>
-      <c r="F35" t="n">
-        <v>962212.8321</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-6794280.295590823</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="D36" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="E36" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2457924.8951</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-9252205.190690823</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="C37" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E37" t="n">
         <v>32</v>
       </c>
-      <c r="C36" t="n">
-        <v>31.84</v>
-      </c>
-      <c r="D36" t="n">
-        <v>32.13</v>
-      </c>
-      <c r="E36" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2457924.8951</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-9252205.190690823</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="F37" t="n">
+        <v>137642.8563781932</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-9114562.334312629</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>32.09</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C38" t="n">
         <v>32.1</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>32.1</v>
       </c>
-      <c r="E37" t="n">
-        <v>32</v>
-      </c>
-      <c r="F37" t="n">
-        <v>137642.8563781932</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="E38" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="F38" t="n">
+        <v>165.677</v>
+      </c>
+      <c r="G38" t="n">
         <v>-9114562.334312629</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>32.09</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>32.1</v>
       </c>
-      <c r="D38" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>32.09</v>
-      </c>
-      <c r="F38" t="n">
-        <v>165.677</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-9114562.334312629</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="C39" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="D39" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="E39" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="F39" t="n">
+        <v>136524.7274722617</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-8978037.606840366</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>32.1</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F40" t="n">
+        <v>116095.9147</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-9094133.521540366</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="D41" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4055548.4224</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-13149681.94394037</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D42" t="n">
+        <v>32</v>
+      </c>
+      <c r="E42" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5834258.2238</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-7315423.720140366</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7225182.7003</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-14540606.42044036</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>32</v>
+      </c>
+      <c r="E44" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1527711.8178</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-16068318.23824036</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5699487.6888</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-10368830.54944037</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="D46" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="E46" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12639107.6718</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-23007938.22124036</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="C47" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="D47" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="E47" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2890788.1776</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-23007938.22124036</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C48" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="D48" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="E48" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>57517.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-22950420.72124036</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>32</v>
+      </c>
+      <c r="D49" t="n">
+        <v>32</v>
+      </c>
+      <c r="E49" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6268</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-22944152.72124036</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>32</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32</v>
+      </c>
+      <c r="D50" t="n">
+        <v>32</v>
+      </c>
+      <c r="E50" t="n">
+        <v>32</v>
+      </c>
+      <c r="F50" t="n">
+        <v>20871.6875</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-22944152.72124036</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>32</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="D51" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="E51" t="n">
+        <v>32</v>
+      </c>
+      <c r="F51" t="n">
+        <v>22288.36727135757</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-22921864.35396901</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D52" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="E52" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>147692.867</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-22774171.48696901</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="C53" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="E53" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="F53" t="n">
+        <v>64183.17347906622</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-22774171.48696901</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>32.28</v>
       </c>
-      <c r="D39" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="E39" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="F39" t="n">
-        <v>136524.7274722617</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-8978037.606840366</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="C54" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="D54" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="E54" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5308.527455079559</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-22779480.01442409</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="C55" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="D55" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="F55" t="n">
+        <v>11703705.7027</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-34483185.71712409</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="C56" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="D56" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="E56" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1145794.4225</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-34483185.71712409</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E57" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>117118.3119</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-34600304.02902409</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="C58" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="E58" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>220235.079</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-34820539.10802409</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="D40" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>116095.9147</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-9094133.521540366</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="D41" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4055548.4224</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-13149681.94394037</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="C42" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="D42" t="n">
-        <v>32</v>
-      </c>
-      <c r="E42" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5834258.2238</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-7315423.720140366</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="C43" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D43" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="E43" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>7225182.7003</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-14540606.42044036</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="D44" t="n">
-        <v>32</v>
-      </c>
-      <c r="E44" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1527711.8178</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-16068318.23824036</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="C45" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="D45" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="E45" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5699487.6888</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-10368830.54944037</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="C46" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="D46" t="n">
-        <v>31.85</v>
-      </c>
-      <c r="E46" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="F46" t="n">
-        <v>12639107.6718</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-23007938.22124036</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="C47" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="D47" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="E47" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2890788.1776</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-23007938.22124036</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="C48" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="D48" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="E48" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>57517.5</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-22950420.72124036</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="C49" t="n">
-        <v>32</v>
-      </c>
-      <c r="D49" t="n">
-        <v>32</v>
-      </c>
-      <c r="E49" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6268</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-22944152.72124036</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>32</v>
-      </c>
-      <c r="C50" t="n">
-        <v>32</v>
-      </c>
-      <c r="D50" t="n">
-        <v>32</v>
-      </c>
-      <c r="E50" t="n">
-        <v>32</v>
-      </c>
-      <c r="F50" t="n">
-        <v>20871.6875</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-22944152.72124036</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>32</v>
-      </c>
-      <c r="C51" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="D51" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="E51" t="n">
-        <v>32</v>
-      </c>
-      <c r="F51" t="n">
-        <v>22288.36727135757</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-22921864.35396901</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="C52" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D52" t="n">
-        <v>32.77</v>
-      </c>
-      <c r="E52" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F52" t="n">
-        <v>147692.867</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-22774171.48696901</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>32.77</v>
-      </c>
-      <c r="C53" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D53" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="E53" t="n">
-        <v>31.58</v>
-      </c>
-      <c r="F53" t="n">
-        <v>64183.17347906622</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-22774171.48696901</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="C54" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="D54" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="E54" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="F54" t="n">
-        <v>5308.527455079559</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-22779480.01442409</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="C55" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="D55" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E55" t="n">
-        <v>31.41</v>
-      </c>
-      <c r="F55" t="n">
-        <v>11703705.7027</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-34483185.71712409</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="C56" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="D56" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="E56" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1145794.4225</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-34483185.71712409</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="C57" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D57" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="E57" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F57" t="n">
-        <v>117118.3119</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-34600304.02902409</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="C58" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D58" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="E58" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>220235.079</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-34820539.10802409</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2594,18 +2488,15 @@
         <v>-34749485.52492409</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2630,18 +2521,15 @@
         <v>-34749485.52492409</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2668,16 +2556,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2704,16 +2589,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2740,16 +2622,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2776,16 +2655,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2812,16 +2688,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2848,16 +2721,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2884,16 +2754,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2920,16 +2787,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2956,16 +2820,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2992,16 +2853,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3028,16 +2886,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3064,16 +2919,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3100,16 +2952,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3136,16 +2985,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3172,16 +3018,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3208,16 +3051,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3244,16 +3084,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3280,16 +3117,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3316,16 +3150,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3352,16 +3183,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3388,16 +3216,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3424,16 +3249,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3460,16 +3282,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3496,16 +3315,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3532,16 +3348,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3568,16 +3381,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3604,16 +3414,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3640,16 +3447,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3676,16 +3480,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3712,16 +3513,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3748,16 +3546,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3784,16 +3579,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3820,16 +3612,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3856,16 +3645,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3892,16 +3678,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3928,16 +3711,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3964,16 +3744,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4000,16 +3777,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4036,16 +3810,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4072,16 +3843,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4108,16 +3876,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4144,16 +3909,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4180,16 +3942,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4216,16 +3975,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4252,16 +4008,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4288,16 +4041,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4324,16 +4074,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4360,16 +4107,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4396,16 +4140,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4432,16 +4173,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4468,16 +4206,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4504,16 +4239,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4538,18 +4270,15 @@
         <v>-41344264.05513271</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4574,18 +4303,15 @@
         <v>-41448764.38953271</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4610,18 +4336,15 @@
         <v>-41396855.88301618</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4646,18 +4369,15 @@
         <v>-41431102.29797629</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4682,18 +4402,15 @@
         <v>-41449542.3276763</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4720,16 +4437,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4754,18 +4468,15 @@
         <v>-41332655.2586763</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4790,18 +4501,15 @@
         <v>-41055876.9645763</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4826,18 +4534,15 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4862,18 +4567,15 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4900,16 +4602,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4936,16 +4635,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4972,16 +4668,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5008,16 +4701,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5044,16 +4734,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5080,16 +4767,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5116,16 +4800,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5152,16 +4833,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5188,16 +4866,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5224,16 +4899,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5260,16 +4932,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5296,16 +4965,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5332,16 +4998,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5368,16 +5031,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5404,16 +5064,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5440,16 +5097,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5476,16 +5130,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5512,16 +5163,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5546,18 +5194,15 @@
         <v>-41196375.81310221</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5584,16 +5229,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5620,16 +5262,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5656,16 +5295,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5692,16 +5328,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5728,16 +5361,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5764,16 +5394,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5800,16 +5427,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5836,16 +5460,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5872,16 +5493,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5908,16 +5526,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5944,16 +5559,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5980,16 +5592,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6016,16 +5625,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6052,16 +5658,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6088,16 +5691,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6124,16 +5724,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6160,16 +5757,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6196,16 +5790,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6232,16 +5823,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6268,16 +5856,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6304,16 +5889,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6340,16 +5922,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6376,16 +5955,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6412,16 +5988,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6448,16 +6021,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6484,16 +6054,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6520,16 +6087,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6556,16 +6120,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6592,16 +6153,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6628,16 +6186,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6664,16 +6219,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6700,16 +6252,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6736,16 +6285,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6772,16 +6318,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6808,16 +6351,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6844,16 +6384,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6880,16 +6417,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6916,16 +6450,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6952,16 +6483,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6988,16 +6516,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7024,16 +6549,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7060,16 +6582,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7096,16 +6615,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7132,16 +6648,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7168,16 +6681,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7204,16 +6714,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7240,16 +6747,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7276,16 +6780,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7312,16 +6813,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7348,16 +6846,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7384,16 +6879,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7420,16 +6912,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7456,16 +6945,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7492,16 +6978,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7528,16 +7011,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7564,16 +7044,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7600,16 +7077,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7636,16 +7110,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7672,16 +7143,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7708,16 +7176,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7744,16 +7209,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7780,16 +7242,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7816,16 +7275,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7852,16 +7308,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7888,16 +7341,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7924,16 +7374,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7960,16 +7407,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7996,16 +7440,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8032,16 +7473,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8068,16 +7506,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8104,16 +7539,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8140,16 +7572,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8176,16 +7605,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8212,16 +7638,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8248,16 +7671,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8284,16 +7704,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8320,16 +7737,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8356,16 +7770,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8392,16 +7803,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8428,16 +7836,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8464,16 +7869,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8500,16 +7902,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8536,16 +7935,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8572,16 +7968,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8608,16 +8001,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8644,16 +8034,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8680,16 +8067,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8716,16 +8100,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8752,16 +8133,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8788,16 +8166,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8824,16 +8199,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8860,16 +8232,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8896,16 +8265,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8932,16 +8298,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8968,16 +8331,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9004,16 +8364,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9040,16 +8397,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9076,16 +8430,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9112,16 +8463,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9148,16 +8496,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9184,16 +8529,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9220,16 +8562,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9256,16 +8595,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9292,16 +8628,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9328,16 +8661,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9364,16 +8694,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9400,16 +8727,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9436,16 +8760,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9472,16 +8793,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9508,16 +8826,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9544,16 +8859,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9580,16 +8892,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9616,16 +8925,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9652,16 +8958,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9688,16 +8991,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9724,16 +9024,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9760,16 +9057,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9796,16 +9090,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9832,16 +9123,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9868,16 +9156,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9904,16 +9189,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9940,16 +9222,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9976,16 +9255,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10012,16 +9288,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10048,16 +9321,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10084,16 +9354,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10120,16 +9387,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10156,16 +9420,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10192,16 +9453,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10228,16 +9486,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10264,16 +9519,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10300,16 +9552,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10336,16 +9585,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10372,16 +9618,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10408,16 +9651,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10444,16 +9684,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10480,16 +9717,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10516,16 +9750,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10552,16 +9783,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10588,16 +9816,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10624,16 +9849,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10660,16 +9882,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10696,16 +9915,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10732,16 +9948,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10768,16 +9981,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10804,16 +10014,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10840,16 +10047,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10876,16 +10080,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10912,18 +10113,15 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest FCT.xlsx
+++ b/BackTest/2020-01-21 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,17 +1144,11 @@
         <v>26774.52415349147</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>30.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1183,17 +1177,11 @@
         <v>26791.52415349147</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>30.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1226,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1263,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1300,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1333,17 +1309,11 @@
         <v>36880.67145349146</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>30.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1372,17 +1342,11 @@
         <v>42806.01015349146</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>30.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1411,17 +1375,11 @@
         <v>37293.95410917736</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1450,17 +1408,11 @@
         <v>37293.95410917736</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>30.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1493,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1526,17 +1474,11 @@
         <v>193506.8723091774</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>30.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1565,15 +1507,11 @@
         <v>-7756493.127690823</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1602,15 +1540,11 @@
         <v>-6794280.295590823</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1639,15 +1573,11 @@
         <v>-9252205.190690823</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1676,15 +1606,11 @@
         <v>-9114562.334312629</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1717,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1791,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1828,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1865,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1898,15 +1804,11 @@
         <v>-14540606.42044036</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1935,15 +1837,11 @@
         <v>-16068318.23824036</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1972,15 +1870,11 @@
         <v>-10368830.54944037</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2009,15 +1903,11 @@
         <v>-23007938.22124036</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2046,15 +1936,11 @@
         <v>-23007938.22124036</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2083,15 +1969,11 @@
         <v>-22950420.72124036</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2120,15 +2002,11 @@
         <v>-22944152.72124036</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2157,15 +2035,11 @@
         <v>-22944152.72124036</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2194,15 +2068,11 @@
         <v>-22921864.35396901</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2231,15 +2101,11 @@
         <v>-22774171.48696901</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2268,15 +2134,11 @@
         <v>-22774171.48696901</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2305,15 +2167,11 @@
         <v>-22779480.01442409</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2342,15 +2200,11 @@
         <v>-34483185.71712409</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2379,15 +2233,11 @@
         <v>-34483185.71712409</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2416,15 +2266,11 @@
         <v>-34600304.02902409</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2453,16 +2299,14 @@
         <v>-34820539.10802409</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
       <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2488,7 +2332,7 @@
         <v>-34749485.52492409</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2521,7 +2365,7 @@
         <v>-34749485.52492409</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2554,7 +2398,7 @@
         <v>-34800367.51072409</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2587,7 +2431,7 @@
         <v>-34800367.51072409</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2620,7 +2464,7 @@
         <v>-34800367.51072409</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2752,7 +2596,7 @@
         <v>-34744565.11552409</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2785,7 +2629,7 @@
         <v>-34748778.37262409</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4270,7 +4114,7 @@
         <v>-41344264.05513271</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4303,7 +4147,7 @@
         <v>-41448764.38953271</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4336,7 +4180,7 @@
         <v>-41396855.88301618</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4369,7 +4213,7 @@
         <v>-41431102.29797629</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4402,7 +4246,7 @@
         <v>-41449542.3276763</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4468,7 +4312,7 @@
         <v>-41332655.2586763</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4501,7 +4345,7 @@
         <v>-41055876.9645763</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4534,7 +4378,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4567,7 +4411,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5194,7 +5038,7 @@
         <v>-41196375.81310221</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -7306,10 +7150,14 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J205" t="n">
+        <v>31.5</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
@@ -7339,11 +7187,19 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J206" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7372,11 +7228,19 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J207" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7405,11 +7269,19 @@
         <v>-41423049.3228947</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J208" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +7310,19 @@
         <v>-41415964.2733947</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="J209" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7471,11 +7351,19 @@
         <v>-41345964.2733947</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="J210" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7504,11 +7392,19 @@
         <v>-41477864.7017947</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>32.04</v>
+      </c>
+      <c r="J211" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7540,8 +7436,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7570,11 +7472,19 @@
         <v>-41481383.1957947</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="J213" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7603,11 +7513,19 @@
         <v>-41514926.8847947</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7636,11 +7554,19 @@
         <v>-41514926.8847947</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="J215" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7669,11 +7595,19 @@
         <v>-41514926.8847947</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="J216" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7702,11 +7636,19 @@
         <v>-41508751.83879471</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="J217" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7735,11 +7677,19 @@
         <v>-41508768.83879471</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J218" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7768,11 +7718,19 @@
         <v>-41434226.37815452</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J219" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7804,8 +7762,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7837,8 +7801,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7867,11 +7837,19 @@
         <v>-41495314.17265453</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J222" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7900,11 +7878,19 @@
         <v>-41510314.17265453</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="J223" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7933,11 +7919,19 @@
         <v>-41480671.40738122</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J224" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7966,11 +7960,19 @@
         <v>-41480597.78488122</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7999,11 +8001,19 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="J226" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8032,11 +8042,19 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J227" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8065,11 +8083,19 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J228" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8098,11 +8124,19 @@
         <v>-41493406.20648122</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J229" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8131,11 +8165,19 @@
         <v>-41343406.20648122</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>31</v>
+      </c>
+      <c r="J230" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8164,11 +8206,19 @@
         <v>-41344999.26858122</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="J231" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8197,11 +8247,19 @@
         <v>-41344999.26858122</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8233,8 +8291,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8266,8 +8330,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8299,8 +8369,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8332,8 +8408,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8365,8 +8447,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8395,11 +8483,19 @@
         <v>-41351823.91688123</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="J238" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8428,11 +8524,19 @@
         <v>-41351823.91688123</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8461,11 +8565,19 @@
         <v>-41372251.58828123</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8494,11 +8606,19 @@
         <v>-41370533.58828123</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="J241" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8530,8 +8650,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8563,8 +8689,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8596,8 +8728,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8629,8 +8767,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8662,8 +8806,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8695,8 +8845,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8728,8 +8884,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8761,8 +8923,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8794,8 +8962,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8827,8 +9001,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8860,8 +9040,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8893,8 +9079,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8926,8 +9118,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8959,8 +9157,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8992,8 +9196,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9025,8 +9235,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9058,8 +9274,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9091,8 +9313,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9124,8 +9352,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9157,8 +9391,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9190,8 +9430,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9223,8 +9469,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9256,8 +9508,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9289,8 +9547,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9322,8 +9586,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9355,8 +9625,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9388,8 +9664,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9421,8 +9703,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9454,8 +9742,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9487,8 +9781,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9520,8 +9820,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9553,8 +9859,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9586,8 +9898,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9619,8 +9937,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9652,8 +9976,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9682,11 +10012,19 @@
         <v>-40955283.68930195</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="J277" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9718,8 +10056,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9751,8 +10095,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9784,8 +10134,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9817,8 +10173,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9850,8 +10212,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9883,8 +10251,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9916,8 +10290,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9949,8 +10329,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9982,8 +10368,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10015,8 +10407,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10048,8 +10446,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10081,8 +10485,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10114,14 +10524,20 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
       <c r="M290" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest FCT.xlsx
+++ b/BackTest/2020-01-21 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1507,7 +1507,7 @@
         <v>-7756493.127690823</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6794280.295590823</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-9252205.190690823</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-9114562.334312629</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-14540606.42044036</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-16068318.23824036</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-10368830.54944037</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-23007938.22124036</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-23007938.22124036</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-22950420.72124036</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-22944152.72124036</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-22944152.72124036</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-22921864.35396901</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-22774171.48696901</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-22774171.48696901</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-22779480.01442409</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-34483185.71712409</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-34483185.71712409</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-34600304.02902409</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-34820539.10802409</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-34749485.52492409</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-34800367.51072409</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-34744565.11552409</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-34748778.37262409</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-34748762.37262409</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-34738993.0005327</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-34781620.3619327</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-34812322.0414327</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-34679862.2119327</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -7150,14 +7150,10 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J205" t="n">
-        <v>31.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
@@ -7187,468 +7183,392 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
         <v>31.5</v>
       </c>
-      <c r="J206" t="n">
+      <c r="C207" t="n">
         <v>31.5</v>
       </c>
-      <c r="K206" t="inlineStr">
+      <c r="D207" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4561.5778</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-41398719.3228947</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C208" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E208" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>24330</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-41423049.3228947</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="C209" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="D209" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="E209" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="F209" t="n">
+        <v>7085.0495</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-41415964.2733947</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>32.04</v>
+      </c>
+      <c r="D210" t="n">
+        <v>32.04</v>
+      </c>
+      <c r="E210" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="F210" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-41345964.2733947</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="C211" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="D211" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="E211" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="F211" t="n">
+        <v>131900.4284</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-41477864.7017947</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C212" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="D212" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E212" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1383.8972</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-41479248.5989947</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2134.5968</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-41481383.1957947</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="D214" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F214" t="n">
+        <v>33543.689</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-41514926.8847947</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="C215" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="D215" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="E215" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F215" t="n">
+        <v>35.3822</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-41514926.8847947</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="J215" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="C216" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="D216" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="E216" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F216" t="n">
+        <v>108650.2237</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-41514926.8847947</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="C207" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="D207" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E207" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F207" t="n">
-        <v>4561.5778</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-41398719.3228947</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J207" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C208" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D208" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E208" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F208" t="n">
-        <v>24330</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-41423049.3228947</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J208" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K208" t="inlineStr">
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="C217" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E217" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F217" t="n">
+        <v>6175.046</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-41508751.83879471</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="J217" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="C209" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="D209" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="E209" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="F209" t="n">
-        <v>7085.0495</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-41415964.2733947</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J209" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C210" t="n">
-        <v>32.04</v>
-      </c>
-      <c r="D210" t="n">
-        <v>32.04</v>
-      </c>
-      <c r="E210" t="n">
-        <v>31.02</v>
-      </c>
-      <c r="F210" t="n">
-        <v>70000</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-41345964.2733947</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="J210" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="C211" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="D211" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="E211" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="F211" t="n">
-        <v>131900.4284</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-41477864.7017947</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>32.04</v>
-      </c>
-      <c r="J211" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C212" t="n">
-        <v>31.22</v>
-      </c>
-      <c r="D212" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E212" t="n">
-        <v>31.22</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1383.8972</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-41479248.5989947</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C213" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D213" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E213" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F213" t="n">
-        <v>2134.5968</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-41481383.1957947</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>31.22</v>
-      </c>
-      <c r="J213" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C214" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="D214" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E214" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="F214" t="n">
-        <v>33543.689</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-41514926.8847947</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J214" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="C215" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="D215" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="E215" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="F215" t="n">
-        <v>35.3822</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-41514926.8847947</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="J215" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="C216" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="D216" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="E216" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="F216" t="n">
-        <v>108650.2237</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-41514926.8847947</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="J216" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="C217" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="D217" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="E217" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="F217" t="n">
-        <v>6175.046</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-41508751.83879471</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="J217" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7677,13 +7597,11 @@
         <v>-41508768.83879471</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>31.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7718,13 +7636,11 @@
         <v>-41434226.37815452</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>31.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7763,7 +7679,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7802,7 +7718,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7837,13 +7753,11 @@
         <v>-41495314.17265453</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>30.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7878,13 +7792,11 @@
         <v>-41510314.17265453</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>30.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7919,13 +7831,11 @@
         <v>-41480671.40738122</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -7960,13 +7870,11 @@
         <v>-41480597.78488122</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>31.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8001,13 +7909,11 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>31.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8042,13 +7948,11 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8083,13 +7987,11 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8130,7 +8032,7 @@
         <v>30.7</v>
       </c>
       <c r="J229" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8165,13 +8067,11 @@
         <v>-41343406.20648122</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8206,13 +8106,11 @@
         <v>-41344999.26858122</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>31.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8247,13 +8145,11 @@
         <v>-41344999.26858122</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>31.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8292,7 +8188,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8331,7 +8227,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8370,7 +8266,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8409,7 +8305,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8448,7 +8344,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8483,13 +8379,11 @@
         <v>-41351823.91688123</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>31.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8524,13 +8418,11 @@
         <v>-41351823.91688123</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>31.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8565,13 +8457,11 @@
         <v>-41372251.58828123</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>31.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8606,13 +8496,11 @@
         <v>-41370533.58828123</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>30.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8651,7 +8539,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8690,7 +8578,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8729,7 +8617,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8768,7 +8656,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8807,7 +8695,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8846,7 +8734,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8885,7 +8773,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8924,7 +8812,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8963,7 +8851,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9002,7 +8890,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9041,7 +8929,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9080,7 +8968,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9119,7 +9007,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9158,7 +9046,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9197,7 +9085,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9236,7 +9124,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9275,7 +9163,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9314,7 +9202,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9353,7 +9241,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9392,7 +9280,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9431,7 +9319,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9470,7 +9358,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9509,7 +9397,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9548,7 +9436,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9587,7 +9475,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9626,7 +9514,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9665,7 +9553,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9704,7 +9592,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9743,7 +9631,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9782,7 +9670,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9821,7 +9709,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9860,7 +9748,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9899,7 +9787,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9938,7 +9826,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9977,7 +9865,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10012,13 +9900,11 @@
         <v>-40955283.68930195</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>30.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10057,7 +9943,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10096,7 +9982,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10135,7 +10021,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10174,7 +10060,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10213,7 +10099,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10252,7 +10138,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10291,7 +10177,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10330,7 +10216,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10369,7 +10255,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10408,7 +10294,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10447,7 +10333,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10486,7 +10372,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10525,7 +10411,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>31.5</v>
+        <v>31.03</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10538,6 +10424,6 @@
       <c r="M290" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest FCT.xlsx
+++ b/BackTest/2020-01-21 BackTest FCT.xlsx
@@ -2365,7 +2365,7 @@
         <v>-34749485.52492409</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-34800367.51072409</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-34800367.51072409</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-34748762.37262409</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-34738993.0005327</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-34781620.3619327</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-34812322.0414327</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-34679862.2119327</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-41344264.05513271</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-41448764.38953271</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-41396855.88301618</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-41431102.29797629</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-41449542.3276763</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-41449575.3276763</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-41332655.2586763</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-41055876.9645763</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-41104894.95827629</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-41105294.95827629</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-41107833.12137629</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-41111782.32230221</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-41105311.27320221</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-41104827.13050221</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-41104827.13050221</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-41104719.50120221</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-41138387.31800221</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-41151530.99000221</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-41196375.81310221</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-41195708.14540221</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-41187198.72030221</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-41187198.72030221</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-41187198.72030221</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5599,11 +5599,17 @@
         <v>-41270966.14890221</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>31.56</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5638,17 @@
         <v>-41270966.14890221</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>31.52</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5677,17 @@
         <v>-41270898.57780221</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>31.52</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5716,17 @@
         <v>-41293945.20820221</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>31.53</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5755,17 @@
         <v>-41252172.34855794</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>31.52</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +5798,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +5835,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5868,15 @@
         <v>-41253122.34855794</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +5909,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +5946,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +5983,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,14 +6016,16 @@
         <v>-41242381.52510221</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -5995,7 +6051,7 @@
         <v>-41238543.04140221</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6084,7 @@
         <v>-41238543.04140221</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6117,7 @@
         <v>-41250189.66869472</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6150,7 @@
         <v>-41250189.66869472</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6183,7 @@
         <v>-41250489.66869472</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6216,7 @@
         <v>-41250489.66869472</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6391,11 +6447,17 @@
         <v>-41230668.34679471</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>31.8</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6486,15 @@
         <v>-41236270.04229471</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6523,15 @@
         <v>-41236223.81279471</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6560,15 @@
         <v>-41237111.52539471</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6601,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6638,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6675,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6708,17 @@
         <v>-41225672.4274947</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6751,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +6788,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +6825,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6862,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,14 +6895,16 @@
         <v>-41225649.3634947</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
@@ -6820,10 +6930,14 @@
         <v>-41225649.3634947</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J195" t="n">
+        <v>31.9</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
@@ -6853,11 +6967,17 @@
         <v>-41225649.3634947</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7006,19 @@
         <v>-41234214.7339947</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="J197" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7047,19 @@
         <v>-41260321.3226947</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="J198" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7088,19 @@
         <v>-41260298.0550947</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="J199" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7129,19 @@
         <v>-41260298.0550947</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="J200" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7170,19 @@
         <v>-41260298.0550947</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="J201" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7211,19 @@
         <v>-41260298.0550947</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="J202" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7252,19 @@
         <v>-41322715.1625947</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="J203" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7293,19 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="J204" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7334,19 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J205" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7375,19 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J206" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7416,19 @@
         <v>-41398719.3228947</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J207" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7457,19 @@
         <v>-41423049.3228947</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J208" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7498,19 @@
         <v>-41415964.2733947</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="J209" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7539,19 @@
         <v>-41345964.2733947</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="J210" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7580,19 @@
         <v>-41477864.7017947</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>32.04</v>
+      </c>
+      <c r="J211" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7621,19 @@
         <v>-41479248.5989947</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="J212" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7662,19 @@
         <v>-41481383.1957947</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="J213" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7703,19 @@
         <v>-41514926.8847947</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7486,9 +7750,13 @@
         <v>31.03</v>
       </c>
       <c r="J215" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
+        <v>31.9</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,15 +7785,17 @@
         <v>-41514926.8847947</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>31.03</v>
+      </c>
       <c r="J216" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L216" t="n">
@@ -7562,11 +7832,11 @@
         <v>31.03</v>
       </c>
       <c r="J217" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -7597,11 +7867,13 @@
         <v>-41508768.83879471</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J218" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7636,11 +7908,13 @@
         <v>-41434226.37815452</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J219" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7679,7 +7953,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7714,11 +7988,13 @@
         <v>-41486203.76885453</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>31</v>
+      </c>
       <c r="J221" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7753,11 +8029,13 @@
         <v>-41495314.17265453</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J222" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7792,11 +8070,13 @@
         <v>-41510314.17265453</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>30.75</v>
+      </c>
       <c r="J223" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7831,11 +8111,13 @@
         <v>-41480671.40738122</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J224" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -7870,11 +8152,13 @@
         <v>-41480597.78488122</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J225" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -7913,7 +8197,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -7948,11 +8232,13 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J227" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -7987,11 +8273,13 @@
         <v>-41493600.05678122</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J228" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8032,7 +8320,7 @@
         <v>30.7</v>
       </c>
       <c r="J229" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8067,11 +8355,13 @@
         <v>-41343406.20648122</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>31</v>
+      </c>
       <c r="J230" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8110,7 +8400,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8145,11 +8435,13 @@
         <v>-41344999.26858122</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J232" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8184,11 +8476,13 @@
         <v>-41344843.88408122</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J233" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8227,7 +8521,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8266,7 +8560,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8305,7 +8599,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8344,7 +8638,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8379,11 +8673,13 @@
         <v>-41351823.91688123</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>31.29</v>
+      </c>
       <c r="J238" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8418,11 +8714,13 @@
         <v>-41351823.91688123</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J239" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8457,11 +8755,13 @@
         <v>-41372251.58828123</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J240" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8496,11 +8796,13 @@
         <v>-41370533.58828123</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>30.99</v>
+      </c>
       <c r="J241" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8539,7 +8841,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8578,7 +8880,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8617,7 +8919,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8656,7 +8958,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8695,7 +8997,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8734,7 +9036,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8773,7 +9075,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8812,7 +9114,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8851,7 +9153,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8890,7 +9192,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8929,7 +9231,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8968,7 +9270,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9007,7 +9309,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9046,7 +9348,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9085,7 +9387,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9124,7 +9426,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9163,7 +9465,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9202,7 +9504,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9241,7 +9543,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9280,7 +9582,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9319,7 +9621,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9358,7 +9660,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9397,7 +9699,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9436,7 +9738,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9471,11 +9773,13 @@
         <v>-41037886.56393697</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>31</v>
+      </c>
       <c r="J266" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9510,11 +9814,13 @@
         <v>-41044801.82333697</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>30.99</v>
+      </c>
       <c r="J267" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9549,11 +9855,13 @@
         <v>-41044701.82333697</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>30.98</v>
+      </c>
       <c r="J268" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9592,7 +9900,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9631,7 +9939,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9670,7 +9978,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9705,11 +10013,13 @@
         <v>-41103142.51853786</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J272" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9744,11 +10054,13 @@
         <v>-41103079.84303786</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>30.75</v>
+      </c>
       <c r="J273" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9783,11 +10095,13 @@
         <v>-41103923.15353786</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J274" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9822,11 +10136,13 @@
         <v>-41079339.56863786</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J275" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9861,11 +10177,13 @@
         <v>-41093534.20343786</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>30.95</v>
+      </c>
       <c r="J276" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9900,11 +10218,13 @@
         <v>-40955283.68930195</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J277" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9943,7 +10263,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9982,7 +10302,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10021,7 +10341,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10056,11 +10376,13 @@
         <v>-40902272.65323917</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>31.31</v>
+      </c>
       <c r="J281" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10099,7 +10421,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10138,7 +10460,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10177,7 +10499,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10216,7 +10538,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10255,7 +10577,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10294,7 +10616,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10333,7 +10655,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10372,7 +10694,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10411,7 +10733,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>31.03</v>
+        <v>31.9</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>

--- a/BackTest/2020-01-21 BackTest FCT.xlsx
+++ b/BackTest/2020-01-21 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M290"/>
+  <dimension ref="A1:L290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>16598.8567</v>
       </c>
       <c r="G2" t="n">
-        <v>206861.3104</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>19803.0401</v>
       </c>
       <c r="G3" t="n">
-        <v>226664.3505000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>49.1916</v>
       </c>
       <c r="G4" t="n">
-        <v>226713.5421</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1096.1536</v>
       </c>
       <c r="G5" t="n">
-        <v>226713.5421</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>22789.8412</v>
       </c>
       <c r="G6" t="n">
-        <v>203923.7009000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>12233.441</v>
       </c>
       <c r="G7" t="n">
-        <v>191690.2599000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>32600.9219</v>
       </c>
       <c r="G8" t="n">
-        <v>159089.338</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3263.326332247557</v>
       </c>
       <c r="G9" t="n">
-        <v>162352.6643322476</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>8970.114667752443</v>
       </c>
       <c r="G10" t="n">
-        <v>162352.6643322476</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>20.6668</v>
       </c>
       <c r="G11" t="n">
-        <v>162373.3311322476</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>20134.5299</v>
       </c>
       <c r="G12" t="n">
-        <v>162373.3311322476</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>11716.1846</v>
       </c>
       <c r="G13" t="n">
-        <v>150657.1465322476</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>21059.1157</v>
       </c>
       <c r="G14" t="n">
-        <v>129598.0308322476</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>250</v>
       </c>
       <c r="G15" t="n">
-        <v>129598.0308322476</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>6032.521</v>
       </c>
       <c r="G16" t="n">
-        <v>129598.0308322476</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>29735.92075349139</v>
       </c>
       <c r="G17" t="n">
-        <v>159333.951585739</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>16649.5616</v>
       </c>
       <c r="G18" t="n">
-        <v>142684.389985739</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>30309.28193224756</v>
       </c>
       <c r="G19" t="n">
-        <v>112375.1080534915</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>10637.893</v>
       </c>
       <c r="G20" t="n">
-        <v>101737.2150534915</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>40145.2454</v>
       </c>
       <c r="G21" t="n">
-        <v>61591.96965349147</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>34817.4455</v>
       </c>
       <c r="G22" t="n">
-        <v>26774.52415349147</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>73646.999</v>
       </c>
       <c r="G23" t="n">
-        <v>26774.52415349147</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>26791.52415349147</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>6308.7868</v>
       </c>
       <c r="G25" t="n">
-        <v>20482.73735349147</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,21 @@
         <v>19375.6422</v>
       </c>
       <c r="G26" t="n">
-        <v>1107.095153491467</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>30.15</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1199,21 @@
         <v>35773.5763</v>
       </c>
       <c r="G27" t="n">
-        <v>36880.67145349146</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>30.12</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1235,21 @@
         <v>726.4237000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>36880.67145349146</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1271,21 @@
         <v>5925.3387</v>
       </c>
       <c r="G29" t="n">
-        <v>42806.01015349146</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1307,21 @@
         <v>5512.056044314108</v>
       </c>
       <c r="G30" t="n">
-        <v>37293.95410917736</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1343,19 @@
         <v>28487.94395568589</v>
       </c>
       <c r="G31" t="n">
-        <v>37293.95410917736</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1377,19 @@
         <v>40287.6203</v>
       </c>
       <c r="G32" t="n">
-        <v>-2993.666190822645</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1411,19 @@
         <v>196500.5385</v>
       </c>
       <c r="G33" t="n">
-        <v>193506.8723091774</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1445,19 @@
         <v>7950000</v>
       </c>
       <c r="G34" t="n">
-        <v>-7756493.127690823</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1479,19 @@
         <v>962212.8321</v>
       </c>
       <c r="G35" t="n">
-        <v>-6794280.295590823</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1513,19 @@
         <v>2457924.8951</v>
       </c>
       <c r="G36" t="n">
-        <v>-9252205.190690823</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1547,19 @@
         <v>137642.8563781932</v>
       </c>
       <c r="G37" t="n">
-        <v>-9114562.334312629</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1581,19 @@
         <v>165.677</v>
       </c>
       <c r="G38" t="n">
-        <v>-9114562.334312629</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1615,19 @@
         <v>136524.7274722617</v>
       </c>
       <c r="G39" t="n">
-        <v>-8978037.606840366</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1649,19 @@
         <v>116095.9147</v>
       </c>
       <c r="G40" t="n">
-        <v>-9094133.521540366</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1683,19 @@
         <v>4055548.4224</v>
       </c>
       <c r="G41" t="n">
-        <v>-13149681.94394037</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1717,19 @@
         <v>5834258.2238</v>
       </c>
       <c r="G42" t="n">
-        <v>-7315423.720140366</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1751,19 @@
         <v>7225182.7003</v>
       </c>
       <c r="G43" t="n">
-        <v>-14540606.42044036</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1785,19 @@
         <v>1527711.8178</v>
       </c>
       <c r="G44" t="n">
-        <v>-16068318.23824036</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1819,19 @@
         <v>5699487.6888</v>
       </c>
       <c r="G45" t="n">
-        <v>-10368830.54944037</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1853,17 @@
         <v>12639107.6718</v>
       </c>
       <c r="G46" t="n">
-        <v>-23007938.22124036</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1885,15 @@
         <v>2890788.1776</v>
       </c>
       <c r="G47" t="n">
-        <v>-23007938.22124036</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1915,15 @@
         <v>57517.5</v>
       </c>
       <c r="G48" t="n">
-        <v>-22950420.72124036</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1945,15 @@
         <v>6268</v>
       </c>
       <c r="G49" t="n">
-        <v>-22944152.72124036</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1975,15 @@
         <v>20871.6875</v>
       </c>
       <c r="G50" t="n">
-        <v>-22944152.72124036</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2005,15 @@
         <v>22288.36727135757</v>
       </c>
       <c r="G51" t="n">
-        <v>-22921864.35396901</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2035,15 @@
         <v>147692.867</v>
       </c>
       <c r="G52" t="n">
-        <v>-22774171.48696901</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2065,15 @@
         <v>64183.17347906622</v>
       </c>
       <c r="G53" t="n">
-        <v>-22774171.48696901</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2095,15 @@
         <v>5308.527455079559</v>
       </c>
       <c r="G54" t="n">
-        <v>-22779480.01442409</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2125,15 @@
         <v>11703705.7027</v>
       </c>
       <c r="G55" t="n">
-        <v>-34483185.71712409</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2155,15 @@
         <v>1145794.4225</v>
       </c>
       <c r="G56" t="n">
-        <v>-34483185.71712409</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2185,15 @@
         <v>117118.3119</v>
       </c>
       <c r="G57" t="n">
-        <v>-34600304.02902409</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2215,15 @@
         <v>220235.079</v>
       </c>
       <c r="G58" t="n">
-        <v>-34820539.10802409</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2245,15 @@
         <v>71053.5831</v>
       </c>
       <c r="G59" t="n">
-        <v>-34749485.52492409</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2275,15 @@
         <v>369.392</v>
       </c>
       <c r="G60" t="n">
-        <v>-34749485.52492409</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2305,15 @@
         <v>50881.9858</v>
       </c>
       <c r="G61" t="n">
-        <v>-34800367.51072409</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2335,15 @@
         <v>4203.1907</v>
       </c>
       <c r="G62" t="n">
-        <v>-34800367.51072409</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2365,15 @@
         <v>3269.1482</v>
       </c>
       <c r="G63" t="n">
-        <v>-34800367.51072409</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2395,15 @@
         <v>99</v>
       </c>
       <c r="G64" t="n">
-        <v>-34800268.51072409</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2425,15 @@
         <v>6754.9524</v>
       </c>
       <c r="G65" t="n">
-        <v>-34800268.51072409</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2455,15 @@
         <v>1518.8489</v>
       </c>
       <c r="G66" t="n">
-        <v>-34801787.35962409</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2485,15 @@
         <v>57222.2441</v>
       </c>
       <c r="G67" t="n">
-        <v>-34744565.11552409</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2515,15 @@
         <v>4213.2571</v>
       </c>
       <c r="G68" t="n">
-        <v>-34748778.37262409</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2545,15 @@
         <v>18298.4659</v>
       </c>
       <c r="G69" t="n">
-        <v>-34748778.37262409</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2575,15 @@
         <v>28206.8687</v>
       </c>
       <c r="G70" t="n">
-        <v>-34720571.50392409</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2605,15 @@
         <v>28190.8687</v>
       </c>
       <c r="G71" t="n">
-        <v>-34748762.37262409</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2635,15 @@
         <v>9497.831</v>
       </c>
       <c r="G72" t="n">
-        <v>-34739264.54162409</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2665,15 @@
         <v>10000</v>
       </c>
       <c r="G73" t="n">
-        <v>-34749264.54162409</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2695,15 @@
         <v>344.0848</v>
       </c>
       <c r="G74" t="n">
-        <v>-34749264.54162409</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2725,15 @@
         <v>15783.59719139241</v>
       </c>
       <c r="G75" t="n">
-        <v>-34733480.9444327</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2755,15 @@
         <v>5512.0561</v>
       </c>
       <c r="G76" t="n">
-        <v>-34738993.0005327</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2785,15 @@
         <v>5747.1012</v>
       </c>
       <c r="G77" t="n">
-        <v>-34738993.0005327</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2815,15 @@
         <v>42627.3614</v>
       </c>
       <c r="G78" t="n">
-        <v>-34781620.3619327</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2845,15 @@
         <v>30701.6795</v>
       </c>
       <c r="G79" t="n">
-        <v>-34812322.0414327</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2875,15 @@
         <v>132459.8295</v>
       </c>
       <c r="G80" t="n">
-        <v>-34679862.2119327</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2905,15 @@
         <v>4070000</v>
       </c>
       <c r="G81" t="n">
-        <v>-38749862.2119327</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2935,15 @@
         <v>4242555.7881</v>
       </c>
       <c r="G82" t="n">
-        <v>-34507306.42383271</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2965,15 @@
         <v>4694773.1422</v>
       </c>
       <c r="G83" t="n">
-        <v>-39202079.56603271</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2995,15 @@
         <v>6410635.9326</v>
       </c>
       <c r="G84" t="n">
-        <v>-45612715.49863271</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3025,15 @@
         <v>6080264.8914</v>
       </c>
       <c r="G85" t="n">
-        <v>-39532450.6072327</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3055,15 @@
         <v>2102946.0749</v>
       </c>
       <c r="G86" t="n">
-        <v>-41635396.68213271</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3085,15 @@
         <v>17536.017</v>
       </c>
       <c r="G87" t="n">
-        <v>-41617860.66513271</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3115,15 @@
         <v>15878.0321</v>
       </c>
       <c r="G88" t="n">
-        <v>-41633738.69723271</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3145,15 @@
         <v>17133</v>
       </c>
       <c r="G89" t="n">
-        <v>-41633738.69723271</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3175,15 @@
         <v>64604.7676</v>
       </c>
       <c r="G90" t="n">
-        <v>-41698343.46483271</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3205,15 @@
         <v>50873.0049</v>
       </c>
       <c r="G91" t="n">
-        <v>-41647470.45993271</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3235,15 @@
         <v>37.5714</v>
       </c>
       <c r="G92" t="n">
-        <v>-41647432.88853271</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3265,15 @@
         <v>5000.9946</v>
       </c>
       <c r="G93" t="n">
-        <v>-41652433.8831327</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3295,15 @@
         <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>-41652413.8831327</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3325,15 @@
         <v>12203.7228</v>
       </c>
       <c r="G95" t="n">
-        <v>-41640210.1603327</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3355,15 @@
         <v>76627.7306</v>
       </c>
       <c r="G96" t="n">
-        <v>-41563582.4297327</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3385,15 @@
         <v>20146.853</v>
       </c>
       <c r="G97" t="n">
-        <v>-41563582.4297327</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3415,15 @@
         <v>45475.7753</v>
       </c>
       <c r="G98" t="n">
-        <v>-41563582.4297327</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3445,15 @@
         <v>127803.72</v>
       </c>
       <c r="G99" t="n">
-        <v>-41691386.1497327</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3475,15 @@
         <v>1188.9034</v>
       </c>
       <c r="G100" t="n">
-        <v>-41690197.24633271</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3505,15 @@
         <v>122</v>
       </c>
       <c r="G101" t="n">
-        <v>-41690197.24633271</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3535,15 @@
         <v>34850.5818</v>
       </c>
       <c r="G102" t="n">
-        <v>-41655346.66453271</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3565,15 @@
         <v>176.4182</v>
       </c>
       <c r="G103" t="n">
-        <v>-41655523.08273271</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3595,15 @@
         <v>27.2909</v>
       </c>
       <c r="G104" t="n">
-        <v>-41655550.37363271</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3625,15 @@
         <v>699</v>
       </c>
       <c r="G105" t="n">
-        <v>-41654851.37363271</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3655,15 @@
         <v>27.2909</v>
       </c>
       <c r="G106" t="n">
-        <v>-41654851.37363271</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3685,15 @@
         <v>64724.6191</v>
       </c>
       <c r="G107" t="n">
-        <v>-41654851.37363271</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3715,15 @@
         <v>2140</v>
       </c>
       <c r="G108" t="n">
-        <v>-41654851.37363271</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3745,15 @@
         <v>19086.9061</v>
       </c>
       <c r="G109" t="n">
-        <v>-41635764.46753271</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3775,15 @@
         <v>56262.145</v>
       </c>
       <c r="G110" t="n">
-        <v>-41579502.32253271</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3805,15 @@
         <v>34852.9043</v>
       </c>
       <c r="G111" t="n">
-        <v>-41544649.41823271</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3835,15 @@
         <v>178219.5259</v>
       </c>
       <c r="G112" t="n">
-        <v>-41366429.89233271</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3865,15 @@
         <v>22165.8372</v>
       </c>
       <c r="G113" t="n">
-        <v>-41344264.05513271</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3895,15 @@
         <v>104500.3344</v>
       </c>
       <c r="G114" t="n">
-        <v>-41448764.38953271</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3925,15 @@
         <v>51908.50651652765</v>
       </c>
       <c r="G115" t="n">
-        <v>-41396855.88301618</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3955,15 @@
         <v>34246.41496011739</v>
       </c>
       <c r="G116" t="n">
-        <v>-41431102.29797629</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3985,15 @@
         <v>18440.0297</v>
       </c>
       <c r="G117" t="n">
-        <v>-41449542.3276763</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4015,15 @@
         <v>33</v>
       </c>
       <c r="G118" t="n">
-        <v>-41449575.3276763</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4045,15 @@
         <v>116920.069</v>
       </c>
       <c r="G119" t="n">
-        <v>-41332655.2586763</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4075,15 @@
         <v>276778.2941</v>
       </c>
       <c r="G120" t="n">
-        <v>-41055876.9645763</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4105,15 @@
         <v>49017.9937</v>
       </c>
       <c r="G121" t="n">
-        <v>-41104894.95827629</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4135,15 @@
         <v>2967.4332</v>
       </c>
       <c r="G122" t="n">
-        <v>-41104894.95827629</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4165,15 @@
         <v>1335.3449</v>
       </c>
       <c r="G123" t="n">
-        <v>-41104894.95827629</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4195,15 @@
         <v>68.37990000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>-41104894.95827629</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4225,15 @@
         <v>400</v>
       </c>
       <c r="G125" t="n">
-        <v>-41105294.95827629</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4255,15 @@
         <v>2538.1631</v>
       </c>
       <c r="G126" t="n">
-        <v>-41107833.12137629</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4285,15 @@
         <v>9561.481574074074</v>
       </c>
       <c r="G127" t="n">
-        <v>-41098271.63980222</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4315,15 @@
         <v>13510.6825</v>
       </c>
       <c r="G128" t="n">
-        <v>-41111782.32230221</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4345,15 @@
         <v>13511.4786</v>
       </c>
       <c r="G129" t="n">
-        <v>-41098270.84370221</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4375,15 @@
         <v>7040.4295</v>
       </c>
       <c r="G130" t="n">
-        <v>-41105311.27320221</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4405,15 @@
         <v>484.1427</v>
       </c>
       <c r="G131" t="n">
-        <v>-41104827.13050221</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4435,15 @@
         <v>14181.8274</v>
       </c>
       <c r="G132" t="n">
-        <v>-41104827.13050221</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4465,15 @@
         <v>107.6293</v>
       </c>
       <c r="G133" t="n">
-        <v>-41104719.50120221</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4495,15 @@
         <v>33667.8168</v>
       </c>
       <c r="G134" t="n">
-        <v>-41138387.31800221</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4525,15 @@
         <v>13143.672</v>
       </c>
       <c r="G135" t="n">
-        <v>-41151530.99000221</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4555,15 @@
         <v>13554.2574</v>
       </c>
       <c r="G136" t="n">
-        <v>-41151530.99000221</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4585,15 @@
         <v>19650.9374</v>
       </c>
       <c r="G137" t="n">
-        <v>-41171181.92740221</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4615,15 @@
         <v>23205.0204</v>
       </c>
       <c r="G138" t="n">
-        <v>-41194386.94780221</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4645,15 @@
         <v>1515</v>
       </c>
       <c r="G139" t="n">
-        <v>-41195901.94780221</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4675,15 @@
         <v>203.0219</v>
       </c>
       <c r="G140" t="n">
-        <v>-41195698.92590221</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4705,15 @@
         <v>676.8872</v>
       </c>
       <c r="G141" t="n">
-        <v>-41196375.81310221</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4735,15 @@
         <v>667.6677</v>
       </c>
       <c r="G142" t="n">
-        <v>-41195708.14540221</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4765,15 @@
         <v>8509.4251</v>
       </c>
       <c r="G143" t="n">
-        <v>-41187198.72030221</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4795,15 @@
         <v>18188.5043</v>
       </c>
       <c r="G144" t="n">
-        <v>-41187198.72030221</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4825,15 @@
         <v>5271.788</v>
       </c>
       <c r="G145" t="n">
-        <v>-41187198.72030221</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4855,15 @@
         <v>411.5533</v>
       </c>
       <c r="G146" t="n">
-        <v>-41187198.72030221</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4885,15 @@
         <v>19799.9069</v>
       </c>
       <c r="G147" t="n">
-        <v>-41167398.81340221</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4915,15 @@
         <v>22221.4152</v>
       </c>
       <c r="G148" t="n">
-        <v>-41167398.81340221</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4945,15 @@
         <v>23046.6304</v>
       </c>
       <c r="G149" t="n">
-        <v>-41190445.44380221</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4975,15 @@
         <v>7752.2789</v>
       </c>
       <c r="G150" t="n">
-        <v>-41182693.16490221</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5005,15 @@
         <v>4722.866043613707</v>
       </c>
       <c r="G151" t="n">
-        <v>-41182693.16490221</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5035,15 @@
         <v>1387.0831</v>
       </c>
       <c r="G152" t="n">
-        <v>-41184080.24800221</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5065,15 @@
         <v>1492.8313</v>
       </c>
       <c r="G153" t="n">
-        <v>-41185573.07930221</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5095,15 @@
         <v>11751.5461</v>
       </c>
       <c r="G154" t="n">
-        <v>-41197324.6254022</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5125,15 @@
         <v>31467.0582</v>
       </c>
       <c r="G155" t="n">
-        <v>-41197324.6254022</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5155,15 @@
         <v>175953.5611</v>
       </c>
       <c r="G156" t="n">
-        <v>-41197324.6254022</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5185,15 @@
         <v>18440.0297</v>
       </c>
       <c r="G157" t="n">
-        <v>-41215764.65510221</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,24 +5215,15 @@
         <v>55201.4938</v>
       </c>
       <c r="G158" t="n">
-        <v>-41270966.14890221</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>31.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5635,24 +5245,15 @@
         <v>1287.1367</v>
       </c>
       <c r="G159" t="n">
-        <v>-41270966.14890221</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>31.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5674,24 +5275,15 @@
         <v>67.5711</v>
       </c>
       <c r="G160" t="n">
-        <v>-41270898.57780221</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>31.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5713,24 +5305,15 @@
         <v>23046.6304</v>
       </c>
       <c r="G161" t="n">
-        <v>-41293945.20820221</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>31.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5752,24 +5335,15 @@
         <v>41772.85964427148</v>
       </c>
       <c r="G162" t="n">
-        <v>-41252172.34855794</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>31.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5791,22 +5365,15 @@
         <v>950</v>
       </c>
       <c r="G163" t="n">
-        <v>-41253122.34855794</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5828,22 +5395,15 @@
         <v>5318.3829</v>
       </c>
       <c r="G164" t="n">
-        <v>-41253122.34855794</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5865,22 +5425,15 @@
         <v>31084.6442</v>
       </c>
       <c r="G165" t="n">
-        <v>-41253122.34855794</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5902,22 +5455,15 @@
         <v>5533.2934</v>
       </c>
       <c r="G166" t="n">
-        <v>-41253122.34855794</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5939,22 +5485,15 @@
         <v>752.1716</v>
       </c>
       <c r="G167" t="n">
-        <v>-41253122.34855794</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5976,22 +5515,15 @@
         <v>3849.2225</v>
       </c>
       <c r="G168" t="n">
-        <v>-41249273.12605795</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6013,20 +5545,15 @@
         <v>6891.600955728518</v>
       </c>
       <c r="G169" t="n">
-        <v>-41242381.52510221</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K169" t="n">
+        <v>1</v>
       </c>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6048,18 +5575,15 @@
         <v>3838.4837</v>
       </c>
       <c r="G170" t="n">
-        <v>-41238543.04140221</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6081,18 +5605,15 @@
         <v>2767.4146</v>
       </c>
       <c r="G171" t="n">
-        <v>-41238543.04140221</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6114,18 +5635,15 @@
         <v>11646.62729250855</v>
       </c>
       <c r="G172" t="n">
-        <v>-41250189.66869472</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6147,18 +5665,15 @@
         <v>1441.8448</v>
       </c>
       <c r="G173" t="n">
-        <v>-41250189.66869472</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6180,18 +5695,15 @@
         <v>300</v>
       </c>
       <c r="G174" t="n">
-        <v>-41250489.66869472</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6213,18 +5725,15 @@
         <v>1800</v>
       </c>
       <c r="G175" t="n">
-        <v>-41250489.66869472</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6246,18 +5755,15 @@
         <v>41.476</v>
       </c>
       <c r="G176" t="n">
-        <v>-41250489.66869472</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6279,18 +5785,15 @@
         <v>2082.9329</v>
       </c>
       <c r="G177" t="n">
-        <v>-41252572.60159472</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6312,18 +5815,15 @@
         <v>2200</v>
       </c>
       <c r="G178" t="n">
-        <v>-41250372.60159472</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6345,18 +5845,15 @@
         <v>78.404</v>
       </c>
       <c r="G179" t="n">
-        <v>-41250451.00559472</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6378,18 +5875,15 @@
         <v>30.6291</v>
       </c>
       <c r="G180" t="n">
-        <v>-41250420.37649471</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6411,18 +5905,15 @@
         <v>263.9703</v>
       </c>
       <c r="G181" t="n">
-        <v>-41250684.34679471</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6444,24 +5935,15 @@
         <v>20016</v>
       </c>
       <c r="G182" t="n">
-        <v>-41230668.34679471</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>31.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6483,22 +5965,15 @@
         <v>5601.6955</v>
       </c>
       <c r="G183" t="n">
-        <v>-41236270.04229471</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6520,22 +5995,15 @@
         <v>46.2295</v>
       </c>
       <c r="G184" t="n">
-        <v>-41236223.81279471</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6557,22 +6025,15 @@
         <v>887.7126</v>
       </c>
       <c r="G185" t="n">
-        <v>-41237111.52539471</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6594,22 +6055,15 @@
         <v>11434.1375</v>
       </c>
       <c r="G186" t="n">
-        <v>-41225677.3878947</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6631,22 +6085,15 @@
         <v>37000</v>
       </c>
       <c r="G187" t="n">
-        <v>-41225677.3878947</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6668,22 +6115,15 @@
         <v>16</v>
       </c>
       <c r="G188" t="n">
-        <v>-41225693.3878947</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6705,24 +6145,15 @@
         <v>20.9604</v>
       </c>
       <c r="G189" t="n">
-        <v>-41225672.4274947</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>31.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6744,22 +6175,15 @@
         <v>1411.7723</v>
       </c>
       <c r="G190" t="n">
-        <v>-41225672.4274947</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6781,22 +6205,15 @@
         <v>23.064</v>
       </c>
       <c r="G191" t="n">
-        <v>-41225649.3634947</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6818,22 +6235,15 @@
         <v>86.965</v>
       </c>
       <c r="G192" t="n">
-        <v>-41225649.3634947</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6855,22 +6265,15 @@
         <v>14.855</v>
       </c>
       <c r="G193" t="n">
-        <v>-41225649.3634947</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6892,20 +6295,15 @@
         <v>26.1884</v>
       </c>
       <c r="G194" t="n">
-        <v>-41225649.3634947</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K194" t="n">
+        <v>1</v>
       </c>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6927,22 +6325,15 @@
         <v>178.1621</v>
       </c>
       <c r="G195" t="n">
-        <v>-41225649.3634947</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="J195" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6964,24 +6355,15 @@
         <v>11373.8266</v>
       </c>
       <c r="G196" t="n">
-        <v>-41225649.3634947</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7003,26 +6385,15 @@
         <v>8565.370500000001</v>
       </c>
       <c r="G197" t="n">
-        <v>-41234214.7339947</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="J197" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7044,26 +6415,15 @@
         <v>26106.5887</v>
       </c>
       <c r="G198" t="n">
-        <v>-41260321.3226947</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="J198" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7085,26 +6445,15 @@
         <v>23.2676</v>
       </c>
       <c r="G199" t="n">
-        <v>-41260298.0550947</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="J199" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7126,26 +6475,15 @@
         <v>23004.9998</v>
       </c>
       <c r="G200" t="n">
-        <v>-41260298.0550947</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J200" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7167,26 +6505,15 @@
         <v>13133.0589</v>
       </c>
       <c r="G201" t="n">
-        <v>-41260298.0550947</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J201" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7208,26 +6535,15 @@
         <v>80.85173501577287</v>
       </c>
       <c r="G202" t="n">
-        <v>-41260298.0550947</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J202" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7249,26 +6565,15 @@
         <v>62417.1075</v>
       </c>
       <c r="G203" t="n">
-        <v>-41322715.1625947</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J203" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7290,26 +6595,15 @@
         <v>76004.1603</v>
       </c>
       <c r="G204" t="n">
-        <v>-41398719.3228947</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="J204" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7331,26 +6625,15 @@
         <v>22276.8151</v>
       </c>
       <c r="G205" t="n">
-        <v>-41398719.3228947</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J205" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7372,26 +6655,15 @@
         <v>3319.9055</v>
       </c>
       <c r="G206" t="n">
-        <v>-41398719.3228947</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J206" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7413,26 +6685,15 @@
         <v>4561.5778</v>
       </c>
       <c r="G207" t="n">
-        <v>-41398719.3228947</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J207" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7454,26 +6715,15 @@
         <v>24330</v>
       </c>
       <c r="G208" t="n">
-        <v>-41423049.3228947</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J208" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7495,26 +6745,15 @@
         <v>7085.0495</v>
       </c>
       <c r="G209" t="n">
-        <v>-41415964.2733947</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J209" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7536,26 +6775,15 @@
         <v>70000</v>
       </c>
       <c r="G210" t="n">
-        <v>-41345964.2733947</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="J210" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7577,26 +6805,15 @@
         <v>131900.4284</v>
       </c>
       <c r="G211" t="n">
-        <v>-41477864.7017947</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>32.04</v>
-      </c>
-      <c r="J211" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7618,26 +6835,15 @@
         <v>1383.8972</v>
       </c>
       <c r="G212" t="n">
-        <v>-41479248.5989947</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="J212" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7659,26 +6865,15 @@
         <v>2134.5968</v>
       </c>
       <c r="G213" t="n">
-        <v>-41481383.1957947</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>31.22</v>
-      </c>
-      <c r="J213" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7700,26 +6895,15 @@
         <v>33543.689</v>
       </c>
       <c r="G214" t="n">
-        <v>-41514926.8847947</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J214" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7741,26 +6925,15 @@
         <v>35.3822</v>
       </c>
       <c r="G215" t="n">
-        <v>-41514926.8847947</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="J215" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7782,26 +6955,15 @@
         <v>108650.2237</v>
       </c>
       <c r="G216" t="n">
-        <v>-41514926.8847947</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="J216" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7823,26 +6985,15 @@
         <v>6175.046</v>
       </c>
       <c r="G217" t="n">
-        <v>-41508751.83879471</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="J217" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7864,26 +7015,15 @@
         <v>17</v>
       </c>
       <c r="G218" t="n">
-        <v>-41508768.83879471</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J218" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7905,26 +7045,15 @@
         <v>74542.46064018107</v>
       </c>
       <c r="G219" t="n">
-        <v>-41434226.37815452</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J219" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7946,24 +7075,15 @@
         <v>47481.8923</v>
       </c>
       <c r="G220" t="n">
-        <v>-41481708.27045453</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7985,26 +7105,15 @@
         <v>4495.4984</v>
       </c>
       <c r="G221" t="n">
-        <v>-41486203.76885453</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>31</v>
-      </c>
-      <c r="J221" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8026,26 +7135,15 @@
         <v>9110.4038</v>
       </c>
       <c r="G222" t="n">
-        <v>-41495314.17265453</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J222" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8067,26 +7165,15 @@
         <v>15000</v>
       </c>
       <c r="G223" t="n">
-        <v>-41510314.17265453</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="J223" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8108,26 +7195,15 @@
         <v>29642.7652733119</v>
       </c>
       <c r="G224" t="n">
-        <v>-41480671.40738122</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J224" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8149,26 +7225,15 @@
         <v>73.6225</v>
       </c>
       <c r="G225" t="n">
-        <v>-41480597.78488122</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="J225" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8190,24 +7255,15 @@
         <v>13002.2719</v>
       </c>
       <c r="G226" t="n">
-        <v>-41493600.05678122</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8229,26 +7285,15 @@
         <v>23079.3031</v>
       </c>
       <c r="G227" t="n">
-        <v>-41493600.05678122</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J227" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8270,26 +7315,15 @@
         <v>259329.3709</v>
       </c>
       <c r="G228" t="n">
-        <v>-41493600.05678122</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J228" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8311,26 +7345,15 @@
         <v>193.8503</v>
       </c>
       <c r="G229" t="n">
-        <v>-41493406.20648122</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J229" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8352,26 +7375,15 @@
         <v>150000</v>
       </c>
       <c r="G230" t="n">
-        <v>-41343406.20648122</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>31</v>
-      </c>
-      <c r="J230" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8393,24 +7405,15 @@
         <v>1593.0621</v>
       </c>
       <c r="G231" t="n">
-        <v>-41344999.26858122</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8432,26 +7435,15 @@
         <v>128.339</v>
       </c>
       <c r="G232" t="n">
-        <v>-41344999.26858122</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J232" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8473,26 +7465,15 @@
         <v>155.3845</v>
       </c>
       <c r="G233" t="n">
-        <v>-41344843.88408122</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J233" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8514,24 +7495,15 @@
         <v>287.8497</v>
       </c>
       <c r="G234" t="n">
-        <v>-41344843.88408122</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8553,24 +7525,15 @@
         <v>133.2228</v>
       </c>
       <c r="G235" t="n">
-        <v>-41344843.88408122</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8592,24 +7555,15 @@
         <v>19390.5121</v>
       </c>
       <c r="G236" t="n">
-        <v>-41364234.39618123</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8631,24 +7585,15 @@
         <v>14665.0401</v>
       </c>
       <c r="G237" t="n">
-        <v>-41349569.35608122</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8670,26 +7615,15 @@
         <v>2254.5608</v>
       </c>
       <c r="G238" t="n">
-        <v>-41351823.91688123</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>31.29</v>
-      </c>
-      <c r="J238" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8711,26 +7645,15 @@
         <v>14394.0144</v>
       </c>
       <c r="G239" t="n">
-        <v>-41351823.91688123</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="J239" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8752,26 +7675,15 @@
         <v>20427.6714</v>
       </c>
       <c r="G240" t="n">
-        <v>-41372251.58828123</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="J240" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8793,26 +7705,15 @@
         <v>1718</v>
       </c>
       <c r="G241" t="n">
-        <v>-41370533.58828123</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>30.99</v>
-      </c>
-      <c r="J241" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8834,24 +7735,15 @@
         <v>158.3280557314756</v>
       </c>
       <c r="G242" t="n">
-        <v>-41370691.91633696</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8873,24 +7765,15 @@
         <v>491</v>
       </c>
       <c r="G243" t="n">
-        <v>-41371182.91633696</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8912,24 +7795,15 @@
         <v>697</v>
       </c>
       <c r="G244" t="n">
-        <v>-41370485.91633696</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8951,24 +7825,15 @@
         <v>10789.9353</v>
       </c>
       <c r="G245" t="n">
-        <v>-41381275.85163696</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8990,24 +7855,15 @@
         <v>1240.7772</v>
       </c>
       <c r="G246" t="n">
-        <v>-41381275.85163696</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9029,24 +7885,15 @@
         <v>2062</v>
       </c>
       <c r="G247" t="n">
-        <v>-41379213.85163696</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9068,24 +7915,15 @@
         <v>1049.2332</v>
       </c>
       <c r="G248" t="n">
-        <v>-41380263.08483696</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9107,24 +7945,15 @@
         <v>85000</v>
       </c>
       <c r="G249" t="n">
-        <v>-41295263.08483696</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9146,24 +7975,15 @@
         <v>5797</v>
       </c>
       <c r="G250" t="n">
-        <v>-41289466.08483696</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9185,24 +8005,15 @@
         <v>95000</v>
       </c>
       <c r="G251" t="n">
-        <v>-41289466.08483696</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9224,24 +8035,15 @@
         <v>40</v>
       </c>
       <c r="G252" t="n">
-        <v>-41289506.08483696</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9263,24 +8065,15 @@
         <v>13261.2397</v>
       </c>
       <c r="G253" t="n">
-        <v>-41289506.08483696</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9302,24 +8095,15 @@
         <v>1740.8552</v>
       </c>
       <c r="G254" t="n">
-        <v>-41287765.22963696</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9341,24 +8125,15 @@
         <v>11264.5272</v>
       </c>
       <c r="G255" t="n">
-        <v>-41299029.75683696</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9380,24 +8155,15 @@
         <v>21.5214</v>
       </c>
       <c r="G256" t="n">
-        <v>-41299008.23543696</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9419,24 +8185,15 @@
         <v>273736.7072</v>
       </c>
       <c r="G257" t="n">
-        <v>-41025271.52823696</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9458,24 +8215,15 @@
         <v>2569.4072</v>
       </c>
       <c r="G258" t="n">
-        <v>-41027840.93543696</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9497,24 +8245,15 @@
         <v>2569.4072</v>
       </c>
       <c r="G259" t="n">
-        <v>-41030410.34263697</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9536,24 +8275,15 @@
         <v>2128.6668</v>
       </c>
       <c r="G260" t="n">
-        <v>-41030410.34263697</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9575,24 +8305,15 @@
         <v>16</v>
       </c>
       <c r="G261" t="n">
-        <v>-41030394.34263697</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9614,24 +8335,15 @@
         <v>500</v>
       </c>
       <c r="G262" t="n">
-        <v>-41030894.34263697</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9653,24 +8365,15 @@
         <v>834.7915</v>
       </c>
       <c r="G263" t="n">
-        <v>-41031729.13413697</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9692,24 +8395,15 @@
         <v>736.7071999999999</v>
       </c>
       <c r="G264" t="n">
-        <v>-41032465.84133697</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9731,24 +8425,15 @@
         <v>834.7915</v>
       </c>
       <c r="G265" t="n">
-        <v>-41033300.63283697</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9770,26 +8455,15 @@
         <v>4585.9311</v>
       </c>
       <c r="G266" t="n">
-        <v>-41037886.56393697</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>31</v>
-      </c>
-      <c r="J266" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9811,26 +8485,15 @@
         <v>6915.2594</v>
       </c>
       <c r="G267" t="n">
-        <v>-41044801.82333697</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>30.99</v>
-      </c>
-      <c r="J267" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9852,26 +8515,15 @@
         <v>100</v>
       </c>
       <c r="G268" t="n">
-        <v>-41044701.82333697</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>30.98</v>
-      </c>
-      <c r="J268" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9893,24 +8545,15 @@
         <v>33634.87168030109</v>
       </c>
       <c r="G269" t="n">
-        <v>-41078336.69501728</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9932,24 +8575,15 @@
         <v>6839.1764</v>
       </c>
       <c r="G270" t="n">
-        <v>-41071497.51861728</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9971,24 +8605,15 @@
         <v>54.66237942122186</v>
       </c>
       <c r="G271" t="n">
-        <v>-41071442.85623786</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10010,26 +8635,15 @@
         <v>31699.6623</v>
       </c>
       <c r="G272" t="n">
-        <v>-41103142.51853786</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="J272" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10051,26 +8665,15 @@
         <v>62.6755</v>
       </c>
       <c r="G273" t="n">
-        <v>-41103079.84303786</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="J273" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10092,26 +8695,15 @@
         <v>843.3105</v>
       </c>
       <c r="G274" t="n">
-        <v>-41103923.15353786</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="J274" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10133,26 +8725,15 @@
         <v>24583.5849</v>
       </c>
       <c r="G275" t="n">
-        <v>-41079339.56863786</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J275" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10174,26 +8755,15 @@
         <v>14194.6348</v>
       </c>
       <c r="G276" t="n">
-        <v>-41093534.20343786</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>30.95</v>
-      </c>
-      <c r="J276" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10215,26 +8785,15 @@
         <v>138250.5141359223</v>
       </c>
       <c r="G277" t="n">
-        <v>-40955283.68930195</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J277" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10256,24 +8815,15 @@
         <v>69285.1611</v>
       </c>
       <c r="G278" t="n">
-        <v>-41024568.85040195</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10295,24 +8845,15 @@
         <v>410.0946372239748</v>
       </c>
       <c r="G279" t="n">
-        <v>-41024978.94503917</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10334,24 +8875,15 @@
         <v>3293.7082</v>
       </c>
       <c r="G280" t="n">
-        <v>-41028272.65323917</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10373,26 +8905,15 @@
         <v>126000</v>
       </c>
       <c r="G281" t="n">
-        <v>-40902272.65323917</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="J281" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10414,24 +8935,15 @@
         <v>2262.0366</v>
       </c>
       <c r="G282" t="n">
-        <v>-40904534.68983917</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10453,24 +8965,15 @@
         <v>1364.3813</v>
       </c>
       <c r="G283" t="n">
-        <v>-40903170.30853917</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10492,24 +8995,15 @@
         <v>21020.2423</v>
       </c>
       <c r="G284" t="n">
-        <v>-40924190.55083916</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10531,24 +9025,15 @@
         <v>15196.8726</v>
       </c>
       <c r="G285" t="n">
-        <v>-40924190.55083916</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10570,24 +9055,15 @@
         <v>20</v>
       </c>
       <c r="G286" t="n">
-        <v>-40924170.55083916</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10609,24 +9085,15 @@
         <v>4540.3696</v>
       </c>
       <c r="G287" t="n">
-        <v>-40924170.55083916</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10648,24 +9115,15 @@
         <v>6497.355</v>
       </c>
       <c r="G288" t="n">
-        <v>-40917673.19583917</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10687,24 +9145,15 @@
         <v>11243.5419</v>
       </c>
       <c r="G289" t="n">
-        <v>-40928916.73773917</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10726,24 +9175,15 @@
         <v>100</v>
       </c>
       <c r="G290" t="n">
-        <v>-40928916.73773917</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
